--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46FC65C-FD04-4EBA-A6DB-E3BE83537510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746085A8-9737-438E-AE21-276DC31F0A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>fixing alignment</t>
+  </si>
+  <si>
+    <t>10/126/2020</t>
+  </si>
+  <si>
+    <t>issue fixing</t>
   </si>
 </sst>
 </file>
@@ -814,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1313,6 +1319,108 @@
         <v>3</v>
       </c>
       <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21">
+        <v>44128</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21">
+        <v>44129</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="21">
+        <v>44126</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21">
+        <v>44126</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21">
+        <v>44126</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746085A8-9737-438E-AE21-276DC31F0A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9B5FDF-C411-4085-89F1-B74279A38BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>fixing alignment</t>
-  </si>
-  <si>
-    <t>10/126/2020</t>
   </si>
   <si>
     <t>issue fixing</t>
@@ -820,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1354,8 +1351,8 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>31</v>
+      <c r="B28" s="21">
+        <v>44130</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="23" t="s">
@@ -1370,13 +1367,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="21">
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="32" t="s">
@@ -1389,13 +1386,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="21">
-        <v>44126</v>
+        <v>44132</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="32" t="s">
@@ -1408,19 +1405,38 @@
         <v>29</v>
       </c>
       <c r="B31" s="21">
-        <v>44126</v>
+        <v>44133</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="32" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21">
+        <v>44134</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9B5FDF-C411-4085-89F1-B74279A38BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F14C4-B676-41EB-B30C-2C4817AA54D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -124,6 +124,30 @@
   </si>
   <si>
     <t>issue fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR </t>
+  </si>
+  <si>
+    <t>QMVAR Fixing</t>
+  </si>
+  <si>
+    <t>Nmvar</t>
+  </si>
+  <si>
+    <t>Nmvar Migration</t>
+  </si>
+  <si>
+    <t>SAT &amp; SUN DAY</t>
+  </si>
+  <si>
+    <t>Nmvar &amp; soniya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> soniya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> soniya</t>
   </si>
 </sst>
 </file>
@@ -133,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +209,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -230,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -279,6 +310,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -360,6 +453,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1448,13 +1568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
@@ -1487,98 +1607,312 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44137</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44138</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44139</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44140</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44141</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44142</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1"/>
-    <row r="11" spans="1:7" s="3" customFormat="1"/>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44143</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44144</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44145</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44146</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44147</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44148</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44149</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44150</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44151</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
     <row r="19" spans="2:3">
       <c r="C19" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
+      <c r="B20" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
+      <c r="B21" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
+      <c r="B22" s="31" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
+      <c r="B23" s="41" t="s">
+        <v>10</v>
+      </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="C14:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F14C4-B676-41EB-B30C-2C4817AA54D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B6859-C427-4502-8602-ECA71BE3D546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t xml:space="preserve"> soniya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed </t>
+  </si>
+  <si>
+    <t>personal  leave</t>
+  </si>
+  <si>
+    <t>nMVAR</t>
+  </si>
+  <si>
+    <t>Migration</t>
   </si>
 </sst>
 </file>
@@ -261,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -372,6 +384,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -379,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -458,6 +507,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,11 +531,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1566,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1708,12 +1766,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -1723,10 +1781,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -1831,12 +1889,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -1846,10 +1904,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1871,47 +1929,266 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="9" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44152</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44153</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44154</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44155</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44156</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44157</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44158</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44159</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44160</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44162</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44163</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="40" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="31" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="41" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B6859-C427-4502-8602-ECA71BE3D546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A35306-BAE4-40AF-AF46-1D764DD2EC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2103,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>42</v>
@@ -2124,7 +2124,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>42</v>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A35306-BAE4-40AF-AF46-1D764DD2EC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342040D4-E89F-4F1E-88A4-0694AB28A41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve"> soniya</t>
   </si>
   <si>
-    <t xml:space="preserve">completed </t>
-  </si>
-  <si>
     <t>personal  leave</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Migration</t>
+  </si>
+  <si>
+    <t>nMVAR Migration Activuty report</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -538,6 +538,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1627,7 +1630,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1942,9 +1945,7 @@
       <c r="D17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="E17" s="33"/>
       <c r="F17" s="31" t="s">
         <v>5</v>
       </c>
@@ -1963,9 +1964,7 @@
       <c r="D18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>3</v>
-      </c>
+      <c r="E18" s="33"/>
       <c r="F18" s="32" t="s">
         <v>3</v>
       </c>
@@ -1984,9 +1983,7 @@
       <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="E19" s="33"/>
       <c r="F19" s="31" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +1997,7 @@
         <v>44155</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -2048,9 +2045,7 @@
       <c r="D23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="33"/>
       <c r="F23" s="31" t="s">
         <v>5</v>
       </c>
@@ -2069,9 +2064,7 @@
       <c r="D24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>3</v>
-      </c>
+      <c r="E24" s="33"/>
       <c r="F24" s="32" t="s">
         <v>3</v>
       </c>
@@ -2090,9 +2083,7 @@
       <c r="D25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="E25" s="33"/>
       <c r="F25" s="31" t="s">
         <v>5</v>
       </c>
@@ -2106,14 +2097,12 @@
         <v>44161</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>3</v>
-      </c>
+      <c r="E26" s="33"/>
       <c r="F26" s="32" t="s">
         <v>3</v>
       </c>
@@ -2127,24 +2116,65 @@
         <v>44162</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="33"/>
+      <c r="F27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44163</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44164</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44165</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
+      <c r="E30" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="C32" s="9" t="s">
@@ -2184,11 +2214,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F22"/>
+    <mergeCell ref="C28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342040D4-E89F-4F1E-88A4-0694AB28A41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170982E-5B18-49B2-83DF-3C428C9E4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>nMVAR Migration Activuty report</t>
+  </si>
+  <si>
+    <t>nMVAR Migration</t>
+  </si>
+  <si>
+    <t>nMVAR Activitt Report Desging</t>
+  </si>
+  <si>
+    <t>nMVAR Activitt Report Ttesting</t>
+  </si>
+  <si>
+    <t>nMVAR Setup creating</t>
+  </si>
+  <si>
+    <t>nMVAR Issue fixing in Activity report</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>Design issue fixing</t>
   </si>
 </sst>
 </file>
@@ -513,6 +534,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -538,9 +562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1769,12 +1790,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -1784,10 +1805,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -1892,12 +1913,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -1907,10 +1928,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -1996,12 +2017,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2011,12 +2032,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2026,10 +2047,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2134,12 +2155,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2149,10 +2170,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2168,7 +2189,7 @@
       <c r="D30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="36">
         <v>0.7</v>
       </c>
       <c r="F30" s="32" t="s">
@@ -2230,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2269,64 +2290,202 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44167</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44168</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="31" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1"/>
-    <row r="11" spans="1:7" s="3" customFormat="1"/>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44170</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44171</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44172</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44174</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44175</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44176</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
     <row r="13" spans="1:7" s="3" customFormat="1"/>
     <row r="14" spans="1:7" s="3" customFormat="1"/>
     <row r="15" spans="1:7" s="3" customFormat="1"/>
@@ -2337,30 +2496,41 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
+      <c r="B20" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
+      <c r="B21" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
+      <c r="B22" s="31" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
+      <c r="B23" s="35" t="s">
+        <v>10</v>
+      </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170982E-5B18-49B2-83DF-3C428C9E4D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F412F0-84F1-4DC5-9465-D8B416ADA5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Design issue fixing</t>
+  </si>
+  <si>
+    <t>2020/12/014</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2255,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2486,9 +2489,51 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44177</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="10">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44178</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
     <row r="16" spans="1:7" s="3" customFormat="1"/>
     <row r="19" spans="2:3">
       <c r="C19" s="9" t="s">
@@ -2528,8 +2573,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C6:G7"/>
+    <mergeCell ref="C13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F412F0-84F1-4DC5-9465-D8B416ADA5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886255DB-98BB-44FD-BA55-95635BD703EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Design issue fixing</t>
-  </si>
-  <si>
-    <t>2020/12/014</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2252,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2519,8 +2516,8 @@
       <c r="A15" s="10">
         <v>7</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>51</v>
+      <c r="B15" s="11">
+        <v>44179</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>49</v>
@@ -2534,7 +2531,25 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="10">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44180</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
     <row r="19" spans="2:3">
       <c r="C19" s="9" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886255DB-98BB-44FD-BA55-95635BD703EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3650FE00-0646-4FF6-A449-D0773017156A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Design issue fixing</t>
+  </si>
+  <si>
+    <t>Design issue fixing in scroll bar</t>
+  </si>
+  <si>
+    <t>Design issue fixing in dialog box</t>
   </si>
 </sst>
 </file>
@@ -2249,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2550,40 +2556,97 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="9" t="s">
+    <row r="17" spans="1:7" s="3" customFormat="1">
+      <c r="A17" s="10">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44181</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="10">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44182</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1">
+      <c r="A19" s="10">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44183</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="34" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="35" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3650FE00-0646-4FF6-A449-D0773017156A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B46FE-587B-4DEE-9D7F-ECD04A4ECA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -300,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -448,6 +448,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -455,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,6 +586,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2255,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2613,47 +2658,249 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="9" t="s">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A20" s="10">
+        <v>5</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44184</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="10">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44185</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1">
+      <c r="A22" s="10">
+        <v>7</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44186</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1">
+      <c r="A23" s="10">
+        <v>8</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44187</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1">
+      <c r="A24" s="10">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44188</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="A25" s="10">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44189</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="A26" s="10">
+        <v>8</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44190</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A27" s="10">
+        <v>5</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44191</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="10">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44192</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1">
+      <c r="A29" s="10">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44193</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1">
+      <c r="A30" s="10">
+        <v>8</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44194</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1">
+      <c r="A31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1">
+      <c r="A33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="34" t="s">
+    <row r="37" spans="1:7">
+      <c r="B37" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="35" t="s">
+    <row r="39" spans="1:7">
+      <c r="B39" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C6:G7"/>
     <mergeCell ref="C13:G14"/>
+    <mergeCell ref="C20:G21"/>
+    <mergeCell ref="C26:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B46FE-587B-4DEE-9D7F-ECD04A4ECA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67001A39-D2F0-4FC7-B46F-46DBD5D9E715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
     <sheet name="OCT-2020" sheetId="7" r:id="rId2"/>
     <sheet name="NOV-2020" sheetId="20" r:id="rId3"/>
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
+    <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -187,6 +188,9 @@
   </si>
   <si>
     <t>Design issue fixing in dialog box</t>
+  </si>
+  <si>
+    <t>Design issue fixing in firexfox and ie</t>
   </si>
 </sst>
 </file>
@@ -196,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +254,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -473,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -613,6 +625,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1701,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2302,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2341,7 +2374,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="11">
@@ -2360,7 +2393,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="11">
@@ -2379,7 +2412,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="11">
@@ -2398,7 +2431,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="11">
@@ -2417,7 +2450,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="11">
@@ -2430,7 +2463,7 @@
       <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="11">
@@ -2443,7 +2476,7 @@
       <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
-      <c r="A8" s="10">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="11">
@@ -2462,7 +2495,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
-      <c r="A9" s="10">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="11">
@@ -2481,7 +2514,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="11">
@@ -2500,7 +2533,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="10">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="11">
@@ -2519,7 +2552,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
-      <c r="A12" s="10">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="11">
@@ -2538,8 +2571,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A13" s="10">
-        <v>5</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="11">
         <v>44177</v>
@@ -2551,8 +2584,8 @@
       <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="10">
-        <v>6</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>44178</v>
@@ -2564,8 +2597,8 @@
       <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
-      <c r="A15" s="10">
-        <v>7</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>44179</v>
@@ -2583,8 +2616,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
-      <c r="A16" s="10">
-        <v>8</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>44180</v>
@@ -2602,8 +2635,8 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
-      <c r="A17" s="10">
-        <v>8</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44181</v>
@@ -2621,8 +2654,8 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
-      <c r="A18" s="10">
-        <v>8</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44182</v>
@@ -2640,8 +2673,8 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
-      <c r="A19" s="10">
-        <v>8</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>44183</v>
@@ -2659,8 +2692,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A20" s="10">
-        <v>5</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="11">
         <v>44184</v>
@@ -2672,8 +2705,8 @@
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="10">
-        <v>6</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44185</v>
@@ -2685,8 +2718,8 @@
       <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
-      <c r="A22" s="10">
-        <v>7</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44186</v>
@@ -2704,8 +2737,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1">
-      <c r="A23" s="10">
-        <v>8</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44187</v>
@@ -2723,8 +2756,8 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
-      <c r="A24" s="10">
-        <v>8</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="11">
         <v>44188</v>
@@ -2742,8 +2775,8 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
-      <c r="A25" s="10">
-        <v>8</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44189</v>
@@ -2761,8 +2794,8 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
-      <c r="A26" s="10">
-        <v>8</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44190</v>
@@ -2774,8 +2807,8 @@
       <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A27" s="10">
-        <v>5</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="11">
         <v>44191</v>
@@ -2787,8 +2820,8 @@
       <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="10">
-        <v>6</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="11">
         <v>44192</v>
@@ -2800,8 +2833,8 @@
       <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
-      <c r="A29" s="10">
-        <v>7</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44193</v>
@@ -2819,8 +2852,8 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
-      <c r="A30" s="10">
-        <v>8</v>
+      <c r="A30" s="1">
+        <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>44194</v>
@@ -2838,18 +2871,42 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
-      <c r="A31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44195</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1">
-      <c r="A32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44196</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33"/>
@@ -2905,4 +2962,465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEBE7-B80F-423A-BF47-B27802E71695}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44167</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44168</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44170</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="D40" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67001A39-D2F0-4FC7-B46F-46DBD5D9E715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3393799-E072-464D-8777-EDB2345E5226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Design issue fixing in firexfox and ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design issue fixing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujistore &amp; nMVAR </t>
+  </si>
+  <si>
+    <t>Mujistore Design issue fixing  and nMVAR testing setup files</t>
   </si>
 </sst>
 </file>
@@ -573,6 +582,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,7 +639,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,15 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,12 +1883,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -1889,10 +1898,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -1997,12 +2006,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2012,10 +2021,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2101,12 +2110,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2116,12 +2125,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2131,10 +2140,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2239,12 +2248,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2254,10 +2263,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2456,11 +2465,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -2469,11 +2478,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -2577,11 +2586,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -2590,11 +2599,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -2698,11 +2707,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -2711,11 +2720,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -2800,11 +2809,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -2813,11 +2822,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -2826,11 +2835,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -2968,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEBE7-B80F-423A-BF47-B27802E71695}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3013,13 +3022,13 @@
       <c r="B2" s="11">
         <v>44166</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -3028,11 +3037,11 @@
       <c r="B3" s="11">
         <v>44167</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -3041,11 +3050,11 @@
       <c r="B4" s="11">
         <v>44168</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -3060,7 +3069,7 @@
       <c r="D5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="32" t="s">
         <v>3</v>
       </c>
@@ -3079,7 +3088,7 @@
       <c r="D6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="31" t="s">
         <v>5</v>
       </c>
@@ -3089,32 +3098,58 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="B7" s="11">
+        <v>44171</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="B8" s="11">
+        <v>44172</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
+      <c r="B9" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3393799-E072-464D-8777-EDB2345E5226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F1600-092C-43FC-A845-D86519F7D692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>Mujistore Design issue fixing  and nMVAR testing setup files</t>
+  </si>
+  <si>
+    <t>Adding sony design</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub &amp; QMVAR</t>
+  </si>
+  <si>
+    <t>Source code adding in Github</t>
+  </si>
+  <si>
+    <t>adding user management and serivce center</t>
   </si>
 </sst>
 </file>
@@ -494,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -656,6 +671,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2978,7 +3002,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3151,50 +3175,90 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44174</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44175</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -3452,8 +3516,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:G4"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456F1600-092C-43FC-A845-D86519F7D692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CC661-FF78-4CDA-865E-1BB4D4B797E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>adding user management and serivce center</t>
+  </si>
+  <si>
+    <t>Create RPA Task</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -600,6 +603,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,14 +684,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,7 +1005,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1907,12 +1913,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -1922,10 +1928,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -2030,12 +2036,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2045,10 +2051,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2134,12 +2140,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2149,12 +2155,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2164,10 +2170,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2272,12 +2278,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2287,10 +2293,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2368,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2489,11 +2495,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -2502,11 +2508,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -2610,11 +2616,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -2623,11 +2629,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -2731,11 +2737,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -2744,11 +2750,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -2833,11 +2839,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -2846,11 +2852,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -2859,11 +2865,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -3001,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEBE7-B80F-423A-BF47-B27802E71695}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3044,48 +3050,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>44166</v>
-      </c>
-      <c r="C2" s="56" t="s">
+        <v>43831</v>
+      </c>
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>44167</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+        <v>43832</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>44168</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+        <v>43833</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>44169</v>
+        <v>43834</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>49</v>
@@ -3104,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>44170</v>
+        <v>43835</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>49</v>
@@ -3123,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>44171</v>
+        <v>43836</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>49</v>
@@ -3142,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>44172</v>
+        <v>43837</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>55</v>
@@ -3161,7 +3167,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>44173</v>
+        <v>43838</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>55</v>
@@ -3177,38 +3183,38 @@
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>44174</v>
-      </c>
-      <c r="C10" s="62" t="s">
+        <v>43839</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="14.4" customHeight="1">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>44175</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
+        <v>43840</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>44173</v>
+        <v>43841</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>49</v>
@@ -3224,10 +3230,10 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>44173</v>
+        <v>43842</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>58</v>
@@ -3243,10 +3249,10 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>44173</v>
+        <v>44178</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>59</v>
@@ -3264,89 +3270,131 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
+      <c r="B15" s="11">
+        <v>44179</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
+      <c r="B16" s="11">
+        <v>44180</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
+      <c r="B17" s="11">
+        <v>44181</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="B18" s="11">
+        <v>44182</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="B19" s="11">
+        <v>44183</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="B20" s="11">
+        <v>44184</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
+      <c r="B21" s="11">
+        <v>44185</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
+      <c r="B22" s="11">
+        <v>44186</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="1">
@@ -3516,9 +3564,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:G4"/>
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384CC661-FF78-4CDA-865E-1BB4D4B797E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8F668F-E2B9-4E37-BFE8-1D96470855B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -3008,7 +3008,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3396,16 +3396,24 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44187</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8F668F-E2B9-4E37-BFE8-1D96470855B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1060C9-180D-439E-836A-A53093F3F972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="67">
   <si>
     <t>Task</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>Create RPA Task</t>
+  </si>
+  <si>
+    <t>Laptop ssd changing</t>
+  </si>
+  <si>
+    <t>Laptop servies</t>
+  </si>
+  <si>
+    <t>Laptop Software installed</t>
+  </si>
+  <si>
+    <t>Change password screen</t>
   </si>
 </sst>
 </file>
@@ -227,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +301,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -512,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -684,7 +704,25 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3007,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEBE7-B80F-423A-BF47-B27802E71695}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3252,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>44178</v>
+        <v>43843</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>59</v>
@@ -3271,7 +3309,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>44179</v>
+        <v>43844</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>15</v>
@@ -3286,7 +3324,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>44180</v>
+        <v>43845</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54"/>
@@ -3299,7 +3337,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>44181</v>
+        <v>43846</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54"/>
@@ -3312,7 +3350,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>44182</v>
+        <v>43847</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
@@ -3325,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>44183</v>
+        <v>43848</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>49</v>
@@ -3344,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>44184</v>
+        <v>43849</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>49</v>
@@ -3363,7 +3401,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>44185</v>
+        <v>43850</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>49</v>
@@ -3382,7 +3420,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>44186</v>
+        <v>43851</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>49</v>
@@ -3398,10 +3436,10 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>44187</v>
+        <v>43852</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -3419,78 +3457,114 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
+      <c r="B24" s="11">
+        <v>43853</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="B25" s="11">
+        <v>43854</v>
+      </c>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="B26" s="11">
+        <v>43855</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="B27" s="11">
+        <v>43856</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+      <c r="B28" s="11">
+        <v>43857</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
+      <c r="B29" s="11">
+        <v>43858</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
+      <c r="B30" s="11">
+        <v>43859</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="1">
@@ -3572,10 +3646,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C2:G4"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C15:G18"/>
+    <mergeCell ref="C24:G25"/>
+    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1060C9-180D-439E-836A-A53093F3F972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708DD4C6-30B1-4362-9E3D-E035717E00B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="68">
   <si>
     <t>Task</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Change password screen</t>
+  </si>
+  <si>
+    <t>Emergency leave</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -686,6 +689,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,7 +728,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3045,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEBE7-B80F-423A-BF47-B27802E71695}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3090,13 +3099,13 @@
       <c r="B2" s="11">
         <v>43831</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -3105,11 +3114,11 @@
       <c r="B3" s="11">
         <v>43832</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -3118,11 +3127,11 @@
       <c r="B4" s="11">
         <v>43833</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -3241,11 +3250,11 @@
       <c r="B11" s="11">
         <v>43840</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -3311,7 +3320,7 @@
       <c r="B15" s="11">
         <v>43844</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="66" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="51"/>
@@ -3358,24 +3367,20 @@
       <c r="F18" s="57"/>
       <c r="G18" s="58"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>43848</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="25"/>
+      <c r="C19" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -3460,13 +3465,13 @@
       <c r="B24" s="11">
         <v>43853</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -3475,11 +3480,11 @@
       <c r="B25" s="11">
         <v>43854</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -3507,7 +3512,7 @@
       <c r="B27" s="11">
         <v>43856</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="48"/>
@@ -3539,7 +3544,7 @@
       <c r="B29" s="11">
         <v>43858</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="48"/>
@@ -3646,13 +3651,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C2:G4"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C15:G18"/>
     <mergeCell ref="C24:G25"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708DD4C6-30B1-4362-9E3D-E035717E00B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCF7CF-976D-477D-8D4A-2A0345BB5F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="NOV-2020" sheetId="20" r:id="rId3"/>
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
     <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
+    <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -233,6 +234,24 @@
   </si>
   <si>
     <t>Emergency leave</t>
+  </si>
+  <si>
+    <t>QMVAR Design changing</t>
+  </si>
+  <si>
+    <t>Issue fixing</t>
+  </si>
+  <si>
+    <t>Dashboard Design Changing</t>
+  </si>
+  <si>
+    <t>1.nMVAR               2.QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>1. nMVAR issue fixing  2.Qmvar Issue fixing</t>
+  </si>
+  <si>
+    <t>1. Completed  2.WIP</t>
   </si>
 </sst>
 </file>
@@ -535,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,6 +752,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3052,10 +3095,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CBEBE7-B80F-423A-BF47-B27802E71695}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3594,9 +3637,7 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
-      <c r="A33" s="10">
-        <v>31</v>
-      </c>
+      <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -3604,49 +3645,40 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
+    <row r="39" spans="1:7">
+      <c r="D39" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="D40" s="9" t="s">
-        <v>1</v>
+      <c r="C40" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="C41" s="32" t="s">
-        <v>3</v>
+      <c r="C41" s="34" t="s">
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="C42" s="34" t="s">
-        <v>4</v>
+      <c r="C42" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="C43" s="31" t="s">
-        <v>5</v>
+      <c r="C43" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="C44" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3663,4 +3695,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B0A14A-8507-4EBE-BEF5-051F73987A25}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77">
+        <v>43862</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77">
+        <v>43863</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77">
+        <v>43864</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77">
+        <v>43865</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77">
+        <v>43866</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1">
+      <c r="B7" s="11">
+        <v>43867</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="11">
+        <v>43868</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="11">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="11">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="11">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="11">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="11">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="11">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="11">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="11">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="11">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="11">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="11">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="11">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="11">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="11">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="11">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="11">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="11">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="11">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="11">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="11">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="11">
+        <v>43889</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="11">
+        <v>43890</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCF7CF-976D-477D-8D4A-2A0345BB5F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F55B5C-5AFE-4325-9C7B-A5BDF477612D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>1. Completed  2.WIP</t>
+  </si>
+  <si>
+    <t>Adding new change request</t>
   </si>
 </sst>
 </file>
@@ -654,6 +657,27 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,27 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2003,12 +2006,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2018,10 +2021,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -2126,12 +2129,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2141,10 +2144,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2230,12 +2233,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2245,12 +2248,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2260,10 +2263,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2368,12 +2371,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2383,10 +2386,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2585,11 +2588,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -2598,11 +2601,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -2706,11 +2709,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -2719,11 +2722,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -2827,11 +2830,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -2840,11 +2843,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -2929,11 +2932,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -2942,11 +2945,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -2955,11 +2958,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -3142,13 +3145,13 @@
       <c r="B2" s="11">
         <v>43831</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -3157,11 +3160,11 @@
       <c r="B3" s="11">
         <v>43832</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -3170,11 +3173,11 @@
       <c r="B4" s="11">
         <v>43833</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -3293,11 +3296,11 @@
       <c r="B11" s="11">
         <v>43840</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -3363,13 +3366,13 @@
       <c r="B15" s="11">
         <v>43844</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -3378,11 +3381,11 @@
       <c r="B16" s="11">
         <v>43845</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -3391,11 +3394,11 @@
       <c r="B17" s="11">
         <v>43846</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -3404,11 +3407,11 @@
       <c r="B18" s="11">
         <v>43847</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -3417,13 +3420,13 @@
       <c r="B19" s="11">
         <v>43848</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -3508,13 +3511,13 @@
       <c r="B24" s="11">
         <v>43853</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -3523,11 +3526,11 @@
       <c r="B25" s="11">
         <v>43854</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -3555,13 +3558,13 @@
       <c r="B27" s="11">
         <v>43856</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -3587,13 +3590,13 @@
       <c r="B29" s="11">
         <v>43858</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -3702,7 +3705,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3740,86 +3743,86 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43">
         <v>43862</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43">
         <v>43863</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43">
         <v>43864</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="28.8">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43">
         <v>43865</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="75"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="28.8">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>43866</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="1"/>
@@ -3828,48 +3831,103 @@
       <c r="B7" s="11">
         <v>43867</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>43868</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
         <v>43869</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="11">
         <v>43870</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="11">
         <v>43871</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="11">
         <v>43872</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
       <c r="B13" s="11">
         <v>43873</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="11">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F55B5C-5AFE-4325-9C7B-A5BDF477612D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253E014-24F2-4E8D-ACDA-88E160E0B51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="79">
   <si>
     <t>Task</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>Adding new change request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.nMVAR             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. nMVAR issue fixing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. WIP  </t>
+  </si>
+  <si>
+    <t>1.WIP               2.WIP</t>
   </si>
 </sst>
 </file>
@@ -557,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -779,6 +791,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3705,7 +3720,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3933,90 +3948,158 @@
       <c r="B14" s="11">
         <v>43874</v>
       </c>
+      <c r="C14" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>43875</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
         <v>43876</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="2:7" ht="28.8">
       <c r="B17" s="11">
         <v>43877</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="82"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="11">
         <v>43878</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="82"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="11">
         <v>43879</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="82"/>
+    </row>
+    <row r="20" spans="2:7" ht="28.8">
       <c r="B20" s="11">
         <v>43880</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="11">
         <v>43881</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>43882</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:7">
       <c r="B23" s="11">
         <v>43882</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:7">
       <c r="B24" s="11">
         <v>43884</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:7">
       <c r="B25" s="11">
         <v>43885</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:7">
       <c r="B26" s="11">
         <v>43886</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:7">
       <c r="B27" s="11">
         <v>43887</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:7">
       <c r="B28" s="11">
         <v>43888</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>43889</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:7">
       <c r="B30" s="11">
         <v>43890</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C7:G8"/>
+    <mergeCell ref="C14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253E014-24F2-4E8D-ACDA-88E160E0B51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87233E26-0745-45CC-BF4C-CBB2FCF54882}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="83">
   <si>
     <t>Task</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>1.WIP               2.WIP</t>
+  </si>
+  <si>
+    <t>1.QMVAR 2.0           2.Mujistore</t>
+  </si>
+  <si>
+    <t>1.Completed   2.Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t>1.Adding new change request                          2.Adding japanese language</t>
   </si>
 </sst>
 </file>
@@ -690,6 +702,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,9 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2021,12 +2033,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2036,10 +2048,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -2144,12 +2156,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2159,10 +2171,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2248,12 +2260,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2263,12 +2275,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2278,10 +2290,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2386,12 +2398,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2401,10 +2413,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2603,11 +2615,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -2616,11 +2628,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -2724,11 +2736,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -2737,11 +2749,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -2845,11 +2857,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -2858,11 +2870,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -2947,11 +2959,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -2960,11 +2972,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -2973,11 +2985,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -3160,13 +3172,13 @@
       <c r="B2" s="11">
         <v>43831</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -3175,11 +3187,11 @@
       <c r="B3" s="11">
         <v>43832</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -3188,11 +3200,11 @@
       <c r="B4" s="11">
         <v>43833</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -3311,11 +3323,11 @@
       <c r="B11" s="11">
         <v>43840</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -3381,13 +3393,13 @@
       <c r="B15" s="11">
         <v>43844</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -3396,11 +3408,11 @@
       <c r="B16" s="11">
         <v>43845</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -3409,11 +3421,11 @@
       <c r="B17" s="11">
         <v>43846</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -3422,11 +3434,11 @@
       <c r="B18" s="11">
         <v>43847</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -3435,13 +3447,13 @@
       <c r="B19" s="11">
         <v>43848</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -3526,13 +3538,13 @@
       <c r="B24" s="11">
         <v>43853</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="76"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -3541,11 +3553,11 @@
       <c r="B25" s="11">
         <v>43854</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -3573,13 +3585,13 @@
       <c r="B27" s="11">
         <v>43856</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -3605,13 +3617,13 @@
       <c r="B29" s="11">
         <v>43858</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -3719,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B0A14A-8507-4EBE-BEF5-051F73987A25}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3846,23 +3858,23 @@
       <c r="B7" s="11">
         <v>43867</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>43868</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -3948,23 +3960,23 @@
       <c r="B14" s="11">
         <v>43874</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>43875</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -3992,11 +4004,11 @@
       <c r="D17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="82"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="11">
@@ -4008,11 +4020,11 @@
       <c r="D18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="82"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="11">
@@ -4024,11 +4036,11 @@
       <c r="D19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="82"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="2:7" ht="28.8">
       <c r="B20" s="11">
@@ -4050,56 +4062,135 @@
       <c r="B21" s="11">
         <v>43881</v>
       </c>
+      <c r="C21" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>43882</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+    </row>
+    <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
         <v>43882</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="C23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="2:7" ht="28.8">
       <c r="B24" s="11">
         <v>43884</v>
       </c>
+      <c r="C24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="11">
         <v>43885</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="C25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="2:7" ht="28.8">
       <c r="B26" s="11">
         <v>43886</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="C26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="2:7" ht="57.6">
       <c r="B27" s="11">
         <v>43887</v>
       </c>
+      <c r="C27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="11">
         <v>43888</v>
       </c>
+      <c r="C28" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>43889</v>
       </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="11">
-        <v>43890</v>
-      </c>
+      <c r="B30" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="C28:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87233E26-0745-45CC-BF4C-CBB2FCF54882}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6C1A8-5C41-486F-AC31-DDFEC074C5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
     <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
     <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
+    <sheet name="MAR-2021" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -279,6 +280,21 @@
   </si>
   <si>
     <t>1.Adding new change request                          2.Adding japanese language</t>
+  </si>
+  <si>
+    <t>1.Mujistore                            2. RPA</t>
+  </si>
+  <si>
+    <t>1.Mujistore languge adding  2. RPA Data checking</t>
+  </si>
+  <si>
+    <t>1.QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mujistore                            </t>
+  </si>
+  <si>
+    <t>1.Mujistore issue fixing, adding japanese language</t>
   </si>
 </sst>
 </file>
@@ -581,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -807,6 +823,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3128,7 +3148,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3731,8 +3751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B0A14A-8507-4EBE-BEF5-051F73987A25}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4194,4 +4214,511 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB947AA-A8DC-4423-8473-054CB46CE825}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>43831</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>43832</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>43833</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>43834</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>43835</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43836</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>43837</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>43838</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43841</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>43842</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>43843</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>43844</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>43845</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>43846</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>43847</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>43848</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>43849</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>43850</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>43851</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>43852</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>43853</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>43854</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>43855</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>43856</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>43857</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>43858</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>43859</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="D35" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6C1A8-5C41-486F-AC31-DDFEC074C5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140665E-628B-48EF-BAD7-8CA33C32CAEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -282,9 +282,6 @@
     <t>1.Adding new change request                          2.Adding japanese language</t>
   </si>
   <si>
-    <t>1.Mujistore                            2. RPA</t>
-  </si>
-  <si>
     <t>1.Mujistore languge adding  2. RPA Data checking</t>
   </si>
   <si>
@@ -295,6 +292,33 @@
   </si>
   <si>
     <t>1.Mujistore issue fixing, adding japanese language</t>
+  </si>
+  <si>
+    <t>1.Mujistore                                       2. RPA</t>
+  </si>
+  <si>
+    <t>1.Mujistore issue fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mujistore                                   2 .nMVAR                        </t>
+  </si>
+  <si>
+    <t>1.Mujistore issue fixing                                                            2.Active report ddesign changing</t>
+  </si>
+  <si>
+    <t>1.Completed                            2.WIP</t>
+  </si>
+  <si>
+    <t>Active report ddesign changing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMVAR                        </t>
+  </si>
+  <si>
+    <t>Sony CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed     </t>
   </si>
 </sst>
 </file>
@@ -721,6 +745,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -823,10 +851,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,12 +2077,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2068,10 +2092,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -2176,12 +2200,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -2191,10 +2215,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -2280,12 +2304,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2295,12 +2319,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2310,10 +2334,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2418,12 +2442,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2433,10 +2457,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2635,11 +2659,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -2648,11 +2672,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -2756,11 +2780,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -2769,11 +2793,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -2877,11 +2901,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -2890,11 +2914,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -2979,11 +3003,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -2992,11 +3016,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -3005,11 +3029,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -3192,13 +3216,13 @@
       <c r="B2" s="11">
         <v>43831</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -3207,11 +3231,11 @@
       <c r="B3" s="11">
         <v>43832</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -3220,11 +3244,11 @@
       <c r="B4" s="11">
         <v>43833</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -3343,11 +3367,11 @@
       <c r="B11" s="11">
         <v>43840</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -3413,13 +3437,13 @@
       <c r="B15" s="11">
         <v>43844</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -3428,11 +3452,11 @@
       <c r="B16" s="11">
         <v>43845</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -3441,11 +3465,11 @@
       <c r="B17" s="11">
         <v>43846</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -3454,11 +3478,11 @@
       <c r="B18" s="11">
         <v>43847</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -3467,13 +3491,13 @@
       <c r="B19" s="11">
         <v>43848</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -3558,13 +3582,13 @@
       <c r="B24" s="11">
         <v>43853</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -3573,11 +3597,11 @@
       <c r="B25" s="11">
         <v>43854</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -3605,13 +3629,13 @@
       <c r="B27" s="11">
         <v>43856</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -3637,13 +3661,13 @@
       <c r="B29" s="11">
         <v>43858</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -3751,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B0A14A-8507-4EBE-BEF5-051F73987A25}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J23" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3878,23 +3902,23 @@
       <c r="B7" s="11">
         <v>43867</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>43868</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -3980,23 +4004,23 @@
       <c r="B14" s="11">
         <v>43874</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>43875</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -4082,23 +4106,23 @@
       <c r="B21" s="11">
         <v>43881</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>43882</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
@@ -4184,23 +4208,23 @@
       <c r="B28" s="11">
         <v>43888</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>43889</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="11"/>
@@ -4220,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB947AA-A8DC-4423-8473-054CB46CE825}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4248,10 +4272,10 @@
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -4266,13 +4290,13 @@
         <v>43831</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -4285,7 +4309,7 @@
         <v>43832</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>69</v>
@@ -4304,7 +4328,7 @@
         <v>43833</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>69</v>
@@ -4323,10 +4347,10 @@
         <v>43834</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
@@ -4342,10 +4366,10 @@
         <v>43835</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
@@ -4360,11 +4384,13 @@
       <c r="B7" s="11">
         <v>43836</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="C7" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -4373,11 +4399,11 @@
       <c r="B8" s="11">
         <v>43837</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -4386,27 +4412,55 @@
       <c r="B9" s="11">
         <v>43838</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" customHeight="1">
+      <c r="C9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>43839</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>43840</v>
       </c>
+      <c r="C11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -4415,9 +4469,17 @@
       <c r="B12" s="11">
         <v>43841</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="C12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="1">
@@ -4426,9 +4488,17 @@
       <c r="B13" s="11">
         <v>43842</v>
       </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
+      <c r="C13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="1">
@@ -4437,9 +4507,13 @@
       <c r="B14" s="11">
         <v>43843</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
+      <c r="C14" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -4448,11 +4522,11 @@
       <c r="B15" s="11">
         <v>43844</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -4461,11 +4535,17 @@
       <c r="B16" s="11">
         <v>43845</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -4474,11 +4554,17 @@
       <c r="B17" s="11">
         <v>43846</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
+      <c r="C17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -4487,11 +4573,17 @@
       <c r="B18" s="11">
         <v>43847</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="C18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="1">
@@ -4500,11 +4592,17 @@
       <c r="B19" s="11">
         <v>43848</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="C19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -4718,6 +4816,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="C14:G15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8140665E-628B-48EF-BAD7-8CA33C32CAEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE081D4E-B376-4401-8776-0A66ACE4949C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
     <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
     <sheet name="MAR-2021" sheetId="24" r:id="rId7"/>
+    <sheet name="April-2021" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
   <si>
     <t>Task</t>
   </si>
@@ -319,6 +320,51 @@
   </si>
   <si>
     <t xml:space="preserve">Completed     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMVAR 2.O                     </t>
+  </si>
+  <si>
+    <t>Adding  Apple service center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mujistore issue fixing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mujistore         2.QMVAR V2.O                        </t>
+  </si>
+  <si>
+    <t>1.Mujistore Denied IP address adding                                 2.QMVAR Design fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.WIP               2.WIP     </t>
+  </si>
+  <si>
+    <t>1.Adding Apple user generating pdf                             2.Design Changing</t>
+  </si>
+  <si>
+    <t>1.WIP               2.Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mujistore                                2.QMVAR V2.O                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Adding Apple user generating pdf    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.WIP       </t>
+  </si>
+  <si>
+    <t>1.Mujistore                             2.QMVAR Design fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.WIP               2.Completed   </t>
+  </si>
+  <si>
+    <t>2021/04/31</t>
+  </si>
+  <si>
+    <t>1.CR from apple service center</t>
   </si>
 </sst>
 </file>
@@ -621,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -849,6 +895,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3172,7 +3236,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3214,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>15</v>
@@ -3229,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>43832</v>
+        <v>44198</v>
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="71"/>
@@ -3242,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>43833</v>
+        <v>44199</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="74"/>
@@ -3255,7 +3319,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>43834</v>
+        <v>44200</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>49</v>
@@ -3274,7 +3338,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>43835</v>
+        <v>44201</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>49</v>
@@ -3293,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>49</v>
@@ -3312,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>55</v>
@@ -3331,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>43838</v>
+        <v>44204</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>55</v>
@@ -3350,7 +3414,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>43839</v>
+        <v>44205</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>15</v>
@@ -3365,7 +3429,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="71"/>
@@ -3378,7 +3442,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>49</v>
@@ -3397,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>43842</v>
+        <v>44208</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>58</v>
@@ -3416,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>59</v>
@@ -3435,7 +3499,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>43844</v>
+        <v>44210</v>
       </c>
       <c r="C15" s="76" t="s">
         <v>15</v>
@@ -3450,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>43845</v>
+        <v>44211</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="64"/>
@@ -3463,7 +3527,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="64"/>
@@ -3476,7 +3540,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>43847</v>
+        <v>44213</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="67"/>
@@ -3489,7 +3553,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>43848</v>
+        <v>44214</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>67</v>
@@ -3504,7 +3568,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>43849</v>
+        <v>44215</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>49</v>
@@ -3523,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>43850</v>
+        <v>44216</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>49</v>
@@ -3542,7 +3606,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>49</v>
@@ -3561,7 +3625,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>43852</v>
+        <v>44218</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -3580,7 +3644,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>43853</v>
+        <v>44219</v>
       </c>
       <c r="C24" s="76" t="s">
         <v>15</v>
@@ -3595,7 +3659,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>43854</v>
+        <v>44220</v>
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="80"/>
@@ -3608,7 +3672,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>43855</v>
+        <v>44221</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>63</v>
@@ -3627,7 +3691,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>43856</v>
+        <v>44222</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>15</v>
@@ -3642,7 +3706,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>43857</v>
+        <v>44223</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>65</v>
@@ -3659,7 +3723,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>43858</v>
+        <v>44224</v>
       </c>
       <c r="C29" s="69" t="s">
         <v>15</v>
@@ -3674,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>43859</v>
+        <v>44225</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>49</v>
@@ -3775,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B0A14A-8507-4EBE-BEF5-051F73987A25}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:G8"/>
     </sheetView>
   </sheetViews>
@@ -3816,7 +3880,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="42"/>
       <c r="B2" s="43">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>49</v>
@@ -3833,7 +3897,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="42"/>
       <c r="B3" s="43">
-        <v>43863</v>
+        <v>44229</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>49</v>
@@ -3850,7 +3914,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="42"/>
       <c r="B4" s="43">
-        <v>43864</v>
+        <v>44230</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>49</v>
@@ -3867,7 +3931,7 @@
     <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="42"/>
       <c r="B5" s="43">
-        <v>43865</v>
+        <v>44231</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>49</v>
@@ -3884,7 +3948,7 @@
     <row r="6" spans="1:7" ht="28.8">
       <c r="A6" s="42"/>
       <c r="B6" s="43">
-        <v>43866</v>
+        <v>44232</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>71</v>
@@ -3900,7 +3964,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.4" customHeight="1">
       <c r="B7" s="11">
-        <v>43867</v>
+        <v>44233</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>15</v>
@@ -3912,7 +3976,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
-        <v>43868</v>
+        <v>44234</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -3922,7 +3986,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
-        <v>43869</v>
+        <v>44235</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>49</v>
@@ -3938,7 +4002,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="11">
-        <v>43870</v>
+        <v>44236</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>49</v>
@@ -3954,7 +4018,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="11">
-        <v>43871</v>
+        <v>44237</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>49</v>
@@ -3970,7 +4034,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="11">
-        <v>43872</v>
+        <v>44238</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>49</v>
@@ -3986,7 +4050,7 @@
     </row>
     <row r="13" spans="1:7" ht="28.8">
       <c r="B13" s="11">
-        <v>43873</v>
+        <v>44239</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>49</v>
@@ -4002,7 +4066,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="11">
-        <v>43874</v>
+        <v>44240</v>
       </c>
       <c r="C14" s="84" t="s">
         <v>15</v>
@@ -4014,7 +4078,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
-        <v>43875</v>
+        <v>44241</v>
       </c>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
@@ -4024,7 +4088,7 @@
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
-        <v>43876</v>
+        <v>44242</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>49</v>
@@ -4040,7 +4104,7 @@
     </row>
     <row r="17" spans="2:7" ht="28.8">
       <c r="B17" s="11">
-        <v>43877</v>
+        <v>44243</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>71</v>
@@ -4056,7 +4120,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="11">
-        <v>43878</v>
+        <v>44244</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>75</v>
@@ -4072,7 +4136,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="11">
-        <v>43879</v>
+        <v>44245</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>75</v>
@@ -4088,7 +4152,7 @@
     </row>
     <row r="20" spans="2:7" ht="28.8">
       <c r="B20" s="11">
-        <v>43880</v>
+        <v>44246</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>49</v>
@@ -4104,7 +4168,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="11">
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="C21" s="84" t="s">
         <v>15</v>
@@ -4116,7 +4180,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
-        <v>43882</v>
+        <v>44248</v>
       </c>
       <c r="C22" s="84"/>
       <c r="D22" s="84"/>
@@ -4126,7 +4190,7 @@
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
-        <v>43882</v>
+        <v>44248</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -4142,7 +4206,7 @@
     </row>
     <row r="24" spans="2:7" ht="28.8">
       <c r="B24" s="11">
-        <v>43884</v>
+        <v>44250</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>71</v>
@@ -4158,7 +4222,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="11">
-        <v>43885</v>
+        <v>44251</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>75</v>
@@ -4174,7 +4238,7 @@
     </row>
     <row r="26" spans="2:7" ht="28.8">
       <c r="B26" s="11">
-        <v>43886</v>
+        <v>44252</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>49</v>
@@ -4190,7 +4254,7 @@
     </row>
     <row r="27" spans="2:7" ht="57.6">
       <c r="B27" s="11">
-        <v>43887</v>
+        <v>44253</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>79</v>
@@ -4206,7 +4270,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="11">
-        <v>43888</v>
+        <v>44254</v>
       </c>
       <c r="C28" s="84" t="s">
         <v>15</v>
@@ -4218,7 +4282,7 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
-        <v>43889</v>
+        <v>44255</v>
       </c>
       <c r="C29" s="84"/>
       <c r="D29" s="84"/>
@@ -4244,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB947AA-A8DC-4423-8473-054CB46CE825}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4287,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>43831</v>
+        <v>44256</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>87</v>
@@ -4306,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>43832</v>
+        <v>44257</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>84</v>
@@ -4325,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>43833</v>
+        <v>44258</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>84</v>
@@ -4344,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>43834</v>
+        <v>44259</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>85</v>
@@ -4363,7 +4427,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>43835</v>
+        <v>44260</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>85</v>
@@ -4382,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>43836</v>
+        <v>44261</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>15</v>
@@ -4397,7 +4461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>43837</v>
+        <v>44262</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -4410,7 +4474,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>43838</v>
+        <v>44263</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>85</v>
@@ -4429,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>43839</v>
+        <v>44264</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>89</v>
@@ -4448,7 +4512,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>43840</v>
+        <v>44265</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>93</v>
@@ -4467,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>43841</v>
+        <v>44266</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>93</v>
@@ -4486,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>43842</v>
+        <v>44267</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>93</v>
@@ -4505,7 +4569,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>43843</v>
+        <v>44268</v>
       </c>
       <c r="C14" s="84" t="s">
         <v>15</v>
@@ -4520,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>43844</v>
+        <v>44269</v>
       </c>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
@@ -4533,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>43845</v>
+        <v>44270</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
@@ -4552,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>43846</v>
+        <v>44271</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>93</v>
@@ -4571,7 +4635,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>43847</v>
+        <v>44272</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>93</v>
@@ -4590,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>43848</v>
+        <v>44273</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>85</v>
@@ -4609,25 +4673,33 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>43849</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+        <v>44274</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>43850</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>44275</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -4635,12 +4707,12 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>43851</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>44276</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -4648,77 +4720,119 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>43852</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
+        <v>44277</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>43853</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+        <v>44278</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>43854</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1">
+        <v>44279</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>43855</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+        <v>44280</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>43856</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+        <v>44281</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>43857</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>44282</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -4726,12 +4840,12 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>43858</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>44283</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -4739,35 +4853,63 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>43859</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
+        <v>44284</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="B31" s="11">
+        <v>44285</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="B32" s="11">
+        <v>44286</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33"/>
@@ -4816,11 +4958,526 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C7:G8"/>
     <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="C28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337CDA03-DCB7-408E-8C03-FECC58968699}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44288</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44289</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44290</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44291</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44292</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44293</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44294</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44295</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44296</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44297</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44298</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44299</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44300</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44301</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44302</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44303</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44304</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44305</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44306</v>
+      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44307</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44308</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44309</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44310</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44311</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44312</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44313</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44314</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44315</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44316</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="D35" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="C39" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="C28:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE081D4E-B376-4401-8776-0A66ACE4949C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10444E00-E8BD-4C31-81AC-458BD3842324}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>1.CR from apple service center</t>
+  </si>
+  <si>
+    <t>Muji</t>
+  </si>
+  <si>
+    <t>1 Design Changes</t>
+  </si>
+  <si>
+    <t>Issue Fixed</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -914,6 +923,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4971,10 +4998,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337CDA03-DCB7-408E-8C03-FECC58968699}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5025,15 +5052,11 @@
         <v>110</v>
       </c>
       <c r="E2" s="33"/>
-      <c r="F2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>95</v>
       </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
@@ -5042,11 +5065,17 @@
       <c r="B3" s="11">
         <v>44288</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -5055,11 +5084,13 @@
       <c r="B4" s="11">
         <v>44289</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -5068,11 +5099,11 @@
       <c r="B5" s="11">
         <v>44290</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A6" s="1">
@@ -5081,10 +5112,16 @@
       <c r="B6" s="11">
         <v>44291</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -5094,11 +5131,13 @@
       <c r="B7" s="11">
         <v>44292</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -5107,11 +5146,17 @@
       <c r="B8" s="11">
         <v>44293</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -5120,10 +5165,16 @@
       <c r="B9" s="11">
         <v>44294</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -5133,10 +5184,16 @@
       <c r="B10" s="11">
         <v>44295</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="E10" s="33"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8">
@@ -5146,11 +5203,6 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -5159,11 +5211,11 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="1"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="1">
@@ -5172,11 +5224,11 @@
       <c r="B13" s="11">
         <v>44298</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="1"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="1">
@@ -5185,11 +5237,11 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -5198,11 +5250,11 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -5211,11 +5263,11 @@
       <c r="B16" s="11">
         <v>44301</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="1"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -5224,11 +5276,11 @@
       <c r="B17" s="11">
         <v>44302</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="1"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -5237,11 +5289,11 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="1"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="1">
@@ -5250,11 +5302,11 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="1"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -5263,11 +5315,11 @@
       <c r="B20" s="11">
         <v>44305</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="1"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A21" s="1">
@@ -5276,10 +5328,10 @@
       <c r="B21" s="11">
         <v>44306</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -5289,10 +5341,10 @@
       <c r="B22" s="11">
         <v>44307</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -5302,11 +5354,11 @@
       <c r="B23" s="11">
         <v>44308</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="1">
@@ -5315,11 +5367,11 @@
       <c r="B24" s="11">
         <v>44309</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="1"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -5328,11 +5380,11 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="1"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -5341,11 +5393,11 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="1"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="1">
@@ -5354,11 +5406,11 @@
       <c r="B27" s="11">
         <v>44312</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="1"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -5367,10 +5419,10 @@
       <c r="B28" s="11">
         <v>44313</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -5380,10 +5432,10 @@
       <c r="B29" s="11">
         <v>44314</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -5393,11 +5445,11 @@
       <c r="B30" s="11">
         <v>44315</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="1"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="1">
@@ -5406,11 +5458,11 @@
       <c r="B31" s="11">
         <v>44316</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="1"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1">
       <c r="A32" s="10">
@@ -5419,11 +5471,11 @@
       <c r="B32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="1"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33"/>
@@ -5434,49 +5486,47 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
+    <row r="34" spans="1:7">
+      <c r="D34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="35" spans="1:7">
-      <c r="D35" s="9" t="s">
-        <v>1</v>
+      <c r="C35" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="C36" s="32" t="s">
-        <v>3</v>
+      <c r="C36" s="34" t="s">
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="C37" s="34" t="s">
-        <v>4</v>
+      <c r="C37" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="C38" s="31" t="s">
-        <v>5</v>
+      <c r="C38" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="C39" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="C28:F29"/>
+  <mergeCells count="2">
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10444E00-E8BD-4C31-81AC-458BD3842324}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C118C7E-0575-4E16-88F2-F7AE00D8403B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -5001,7 +5001,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5203,6 +5203,13 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
+      <c r="C11" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -5211,11 +5218,11 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="1">
@@ -5224,11 +5231,17 @@
       <c r="B13" s="11">
         <v>44298</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
+      <c r="C13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1">
       <c r="A14" s="1">
@@ -5237,11 +5250,13 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
+      <c r="C14" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -5250,11 +5265,11 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -5263,11 +5278,17 @@
       <c r="B16" s="11">
         <v>44301</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
+      <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -5276,11 +5297,17 @@
       <c r="B17" s="11">
         <v>44302</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -5289,11 +5316,13 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="C18" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="1">
@@ -5302,11 +5331,11 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -5524,9 +5553,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C4:F5"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C118C7E-0575-4E16-88F2-F7AE00D8403B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C450B-F1AE-47F7-A3A8-BD33519346D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
     <sheet name="MAR-2021" sheetId="24" r:id="rId7"/>
     <sheet name="April-2021" sheetId="25" r:id="rId8"/>
+    <sheet name="May-2021" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="116">
   <si>
     <t>Task</t>
   </si>
@@ -374,6 +375,12 @@
   </si>
   <si>
     <t>Issue Fixed</t>
+  </si>
+  <si>
+    <t>WHF</t>
+  </si>
+  <si>
+    <t>Data validation</t>
   </si>
 </sst>
 </file>
@@ -676,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -940,6 +947,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5000,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337CDA03-DCB7-408E-8C03-FECC58968699}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5344,11 +5393,17 @@
       <c r="B20" s="11">
         <v>44305</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="C20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A21" s="1">
@@ -5357,11 +5412,17 @@
       <c r="B21" s="11">
         <v>44306</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
+      <c r="C21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="1">
@@ -5370,11 +5431,17 @@
       <c r="B22" s="11">
         <v>44307</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
+      <c r="C22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="1">
@@ -5383,11 +5450,17 @@
       <c r="B23" s="11">
         <v>44308</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="1">
@@ -5396,11 +5469,17 @@
       <c r="B24" s="11">
         <v>44309</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
+      <c r="C24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -5409,10 +5488,10 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -5422,10 +5501,10 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
@@ -5435,11 +5514,17 @@
       <c r="B27" s="11">
         <v>44312</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="C27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -5448,11 +5533,17 @@
       <c r="B28" s="11">
         <v>44313</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
+      <c r="C28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="1">
@@ -5461,11 +5552,17 @@
       <c r="B29" s="11">
         <v>44314</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
+      <c r="C29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -5474,11 +5571,17 @@
       <c r="B30" s="11">
         <v>44315</v>
       </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
+      <c r="C30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="1">
@@ -5487,11 +5590,17 @@
       <c r="B31" s="11">
         <v>44316</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="C31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1">
       <c r="A32" s="10">
@@ -5500,11 +5609,11 @@
       <c r="B32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33"/>
@@ -5553,7 +5662,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C25:F26"/>
     <mergeCell ref="C4:F5"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C11:F12"/>
@@ -5562,4 +5672,599 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2A1BFB-20F8-456A-9985-45AAFF45FE05}">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44317</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44318</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44319</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44320</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44321</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44322</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44323</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44324</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44325</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44326</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44327</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44328</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44329</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44330</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44331</v>
+      </c>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44332</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44333</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44334</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44335</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44336</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44337</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44338</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44339</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44340</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44341</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44342</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44343</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44344</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44345</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44346</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="D34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="C38" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="C25:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C450B-F1AE-47F7-A3A8-BD33519346D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F0AFA-74A6-4F74-B95A-C4008D353D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Data validation</t>
+  </si>
+  <si>
+    <t>Muji change request</t>
   </si>
 </sst>
 </file>
@@ -5679,7 +5682,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6089,10 +6092,12 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
@@ -6102,37 +6107,49 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44340</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1">
+      <c r="C25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44341</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26"/>
+      <c r="C26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="1">
@@ -6141,11 +6158,17 @@
       <c r="B27" s="11">
         <v>44342</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -6154,11 +6177,17 @@
       <c r="B28" s="11">
         <v>44343</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="F28" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="1">
@@ -6167,11 +6196,17 @@
       <c r="B29" s="11">
         <v>44344</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -6263,7 +6298,7 @@
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="C9:F10"/>
     <mergeCell ref="C15:F17"/>
-    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="C23:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F0AFA-74A6-4F74-B95A-C4008D353D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F387FF9-6610-48AA-A640-5640B8389DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="MAR-2021" sheetId="24" r:id="rId7"/>
     <sheet name="April-2021" sheetId="25" r:id="rId8"/>
     <sheet name="May-2021" sheetId="26" r:id="rId9"/>
+    <sheet name="June-2021" sheetId="27" r:id="rId10"/>
+    <sheet name="July-2021" sheetId="28" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="130">
   <si>
     <t>Task</t>
   </si>
@@ -384,6 +386,55 @@
   </si>
   <si>
     <t>Muji change request</t>
+  </si>
+  <si>
+    <t>Muji Regerssion</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Adding 1. stream server                                                         2.Store subnet batch              3.streamserverlogs validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Username displayed as unknown in top right corner of the page
+2.Administration results not showing
+3.Store number not in Japanese in View Logs
+7. Stream Server View Log--Remarks message not aligned properly and Language not showing correctly
+12.Error occurred on Import when the space present before Folder name.
+13.Subnet ID --&gt; Subnet Number in Stream Server View Logs
+</t>
+  </si>
+  <si>
+    <t>1.Username displayed as unknown in top right corner of the page
+2.Administration results not showing
+3.Store number not in Japanese in View Logs
+14.Validation missing for store number in Store subnet batch
+15.Change Header in CSV. SSServer--&gt; Stream Server Name, IPAddress--&gt; Server IP Address, BelongingSubnet--&gt; Subnet IP Address</t>
+  </si>
+  <si>
+    <t>Align folder management</t>
+  </si>
+  <si>
+    <t>Create New design in User Management</t>
+  </si>
+  <si>
+    <t>Design changes in folder management</t>
+  </si>
+  <si>
+    <t>Create New design in Store Subnet</t>
+  </si>
+  <si>
+    <t>Add old functionality in Store Subnet</t>
+  </si>
+  <si>
+    <t>Add delete in storegroup</t>
+  </si>
+  <si>
+    <t>Add user old functonlity</t>
+  </si>
+  <si>
+    <t>Fixed Regression issues</t>
   </si>
 </sst>
 </file>
@@ -686,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -993,6 +1044,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1447,6 +1504,1004 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D12FF4-5163-48C5-9599-0EFAE536D1BA}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44348</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44349</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44350</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44351</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44352</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44353</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44354</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44355</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44356</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44357</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44358</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44359</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44360</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44361</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44362</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44363</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="144">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44364</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44365</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44366</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44367</v>
+      </c>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44368</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="112"/>
+      <c r="F22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44369</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="112"/>
+      <c r="F23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44371</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44372</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="112"/>
+      <c r="F26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44373</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44374</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44375</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="112"/>
+      <c r="F29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44376</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44377</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C27:F28"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C20:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218034BB-DB8E-478F-B975-AAD66F6AABE4}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44378</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44379</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C27:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G32"/>
@@ -5681,8 +6736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2A1BFB-20F8-456A-9985-45AAFF45FE05}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F387FF9-6610-48AA-A640-5640B8389DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345E390-43BA-4B84-82B9-891FE492015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="139">
   <si>
     <t>Task</t>
   </si>
@@ -435,6 +435,33 @@
   </si>
   <si>
     <t>Fixed Regression issues</t>
+  </si>
+  <si>
+    <t>Add delete in Store group</t>
+  </si>
+  <si>
+    <t>change old layout</t>
+  </si>
+  <si>
+    <t>change toVideo Change request old screen page</t>
+  </si>
+  <si>
+    <t>change to Video Change request old screen page</t>
+  </si>
+  <si>
+    <t>change to Video Change request old screen page issue fixed</t>
+  </si>
+  <si>
+    <t>Adding and modify resources</t>
+  </si>
+  <si>
+    <t>design changes in media approval page and video all page</t>
+  </si>
+  <si>
+    <t>Add 3 links in video all page</t>
+  </si>
+  <si>
+    <t>changing colour in mujistore all page</t>
   </si>
 </sst>
 </file>
@@ -865,6 +892,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,9 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1628,12 +1655,12 @@
       <c r="B6" s="11">
         <v>44352</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -1643,10 +1670,10 @@
       <c r="B7" s="11">
         <v>44353</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -1751,12 +1778,12 @@
       <c r="B13" s="11">
         <v>44359</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -1766,10 +1793,10 @@
       <c r="B14" s="11">
         <v>44360</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1">
@@ -1779,12 +1806,12 @@
       <c r="B15" s="11">
         <v>44361</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
@@ -1870,12 +1897,12 @@
       <c r="B20" s="11">
         <v>44366</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -1885,10 +1912,10 @@
       <c r="B21" s="11">
         <v>44367</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -1904,7 +1931,7 @@
       <c r="D22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="112"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="20" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1950,7 @@
       <c r="D23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="112"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="20" t="s">
         <v>3</v>
       </c>
@@ -1980,7 +2007,7 @@
       <c r="D26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="112"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="20" t="s">
         <v>3</v>
       </c>
@@ -1993,10 +2020,10 @@
       <c r="B27" s="11">
         <v>44373</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -2006,10 +2033,10 @@
       <c r="B28" s="11">
         <v>44374</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2025,7 +2052,7 @@
       <c r="D29" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="20" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218034BB-DB8E-478F-B975-AAD66F6AABE4}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2175,253 +2202,401 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="11">
+        <v>44380</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="11">
+        <v>44381</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.4" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="11">
+        <v>44382</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="B7" s="11">
+        <v>44383</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="11">
+        <v>44384</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="11">
+        <v>44385</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="11">
+        <v>44386</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="11">
+        <v>44387</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="11">
+        <v>44388</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="11">
+        <v>44389</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
+      <c r="B14" s="11">
+        <v>44390</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="B15" s="11">
+        <v>44391</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="B16" s="11">
+        <v>44392</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="14.4" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="11">
+        <v>44393</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="11">
+        <v>44394</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="B19" s="11">
+        <v>44395</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="14.4" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
+      <c r="B20" s="11">
+        <v>44396</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
+      <c r="B21" s="11">
+        <v>44397</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="11">
+        <v>44398</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="20"/>
+      <c r="B23" s="11">
+        <v>44399</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="B24" s="11">
+        <v>44400</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="B25" s="11">
+        <v>44401</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="20"/>
+      <c r="B26" s="11">
+        <v>44402</v>
+      </c>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -2429,10 +2604,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -2440,10 +2615,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2453,7 +2628,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="112"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="20"/>
       <c r="G29" s="1"/>
     </row>
@@ -2491,11 +2666,12 @@
       <c r="G32" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C20:F21"/>
+  <mergeCells count="6">
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C25:F26"/>
     <mergeCell ref="C27:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3275,12 +3451,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -3290,10 +3466,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -3398,12 +3574,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -3413,10 +3589,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -3502,12 +3678,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -3517,12 +3693,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -3532,10 +3708,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3640,12 +3816,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -3655,10 +3831,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -3857,11 +4033,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -3870,11 +4046,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -3978,11 +4154,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -3991,11 +4167,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -4099,11 +4275,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -4112,11 +4288,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -4201,11 +4377,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -4214,11 +4390,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -4227,11 +4403,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -4414,13 +4590,13 @@
       <c r="B2" s="11">
         <v>44197</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -4429,11 +4605,11 @@
       <c r="B3" s="11">
         <v>44198</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -4442,11 +4618,11 @@
       <c r="B4" s="11">
         <v>44199</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -4565,11 +4741,11 @@
       <c r="B11" s="11">
         <v>44206</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -4635,13 +4811,13 @@
       <c r="B15" s="11">
         <v>44210</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -4650,11 +4826,11 @@
       <c r="B16" s="11">
         <v>44211</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -4663,11 +4839,11 @@
       <c r="B17" s="11">
         <v>44212</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -4676,11 +4852,11 @@
       <c r="B18" s="11">
         <v>44213</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -4689,13 +4865,13 @@
       <c r="B19" s="11">
         <v>44214</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -4780,13 +4956,13 @@
       <c r="B24" s="11">
         <v>44219</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -4795,11 +4971,11 @@
       <c r="B25" s="11">
         <v>44220</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -4827,13 +5003,13 @@
       <c r="B27" s="11">
         <v>44222</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -4859,13 +5035,13 @@
       <c r="B29" s="11">
         <v>44224</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -5100,23 +5276,23 @@
       <c r="B7" s="11">
         <v>44233</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>44234</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -5202,23 +5378,23 @@
       <c r="B14" s="11">
         <v>44240</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>44241</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -5304,23 +5480,23 @@
       <c r="B21" s="11">
         <v>44247</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>44248</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
@@ -5406,23 +5582,23 @@
       <c r="B28" s="11">
         <v>44254</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>44255</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="11"/>
@@ -5582,13 +5758,13 @@
       <c r="B7" s="11">
         <v>44261</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -5597,11 +5773,11 @@
       <c r="B8" s="11">
         <v>44262</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -5705,13 +5881,13 @@
       <c r="B14" s="11">
         <v>44268</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -5720,11 +5896,11 @@
       <c r="B15" s="11">
         <v>44269</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -5828,12 +6004,12 @@
       <c r="B21" s="11">
         <v>44275</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -5843,10 +6019,10 @@
       <c r="B22" s="11">
         <v>44276</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -5961,12 +6137,12 @@
       <c r="B28" s="11">
         <v>44282</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -5976,10 +6152,10 @@
       <c r="B29" s="11">
         <v>44283</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -6191,12 +6367,12 @@
       <c r="B4" s="11">
         <v>44289</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
@@ -6206,10 +6382,10 @@
       <c r="B5" s="11">
         <v>44290</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -6238,12 +6414,12 @@
       <c r="B7" s="11">
         <v>44292</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -6310,12 +6486,12 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -6325,10 +6501,10 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -6357,12 +6533,12 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -6372,10 +6548,10 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -6423,12 +6599,12 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
@@ -6438,10 +6614,10 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
@@ -6546,10 +6722,10 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -6559,10 +6735,10 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
@@ -6781,12 +6957,12 @@
       <c r="B2" s="11">
         <v>44317</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="19"/>
       <c r="H2" s="33"/>
     </row>
@@ -6797,10 +6973,10 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -6905,12 +7081,12 @@
       <c r="B9" s="11">
         <v>44324</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -6920,10 +7096,10 @@
       <c r="B10" s="11">
         <v>44325</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1">
@@ -7009,12 +7185,12 @@
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -7024,10 +7200,10 @@
       <c r="B16" s="11">
         <v>44331</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
@@ -7037,10 +7213,10 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -7147,12 +7323,12 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
@@ -7162,10 +7338,10 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345E390-43BA-4B84-82B9-891FE492015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F08158-A43E-4B91-BDD3-CDB234218FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>changing colour in mujistore all page</t>
+  </si>
+  <si>
+    <t>MJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a login page </t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2130,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2485,9 +2491,7 @@
       <c r="D20" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
@@ -2506,9 +2510,7 @@
       <c r="D21" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
         <v>5</v>
       </c>
@@ -2542,9 +2544,7 @@
       <c r="D23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
         <v>5</v>
       </c>
@@ -2563,9 +2563,7 @@
       <c r="D24" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
         <v>5</v>
       </c>
@@ -2599,27 +2597,43 @@
       <c r="F26" s="103"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="14.4" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="11">
+        <v>44403</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="11">
+        <v>44404</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
@@ -2666,13 +2680,12 @@
       <c r="G32" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C4:F5"/>
     <mergeCell ref="C11:F12"/>
     <mergeCell ref="C18:F19"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C25:F26"/>
-    <mergeCell ref="C27:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F08158-A43E-4B91-BDD3-CDB234218FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF5377-86B0-46D5-A80C-3B755651333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="May-2021" sheetId="26" r:id="rId9"/>
     <sheet name="June-2021" sheetId="27" r:id="rId10"/>
     <sheet name="July-2021" sheetId="28" r:id="rId11"/>
+    <sheet name="AUG-2021" sheetId="29" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="149">
   <si>
     <t>Task</t>
   </si>
@@ -468,6 +469,30 @@
   </si>
   <si>
     <t xml:space="preserve">create a login page </t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Employee registeration</t>
+  </si>
+  <si>
+    <t>Mujistore</t>
+  </si>
+  <si>
+    <t>Layout and other design issues</t>
+  </si>
+  <si>
+    <t>fixing design issues in server</t>
+  </si>
+  <si>
+    <t>muji production meeting</t>
+  </si>
+  <si>
+    <t>Login and Registeration page design</t>
+  </si>
+  <si>
+    <t>muji production in change layout and some desigen issues</t>
   </si>
 </sst>
 </file>
@@ -477,7 +502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +572,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -770,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1082,6 +1115,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2129,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218034BB-DB8E-478F-B975-AAD66F6AABE4}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2639,33 +2681,57 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="11">
+        <v>44405</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="11">
+        <v>44406</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="11">
+        <v>44407</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
@@ -2686,6 +2752,522 @@
     <mergeCell ref="C18:F19"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C25:F26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6813092-7487-46CD-A91B-CBD029655E27}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44409</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44410</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44411</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44412</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44413</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44414</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44415</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44416</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44417</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44418</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44419</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44420</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44421</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44422</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44423</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44424</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44425</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44427</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44428</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="18">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44429</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44430</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44432</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44433</v>
+      </c>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44434</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44436</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44437</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44438</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF5377-86B0-46D5-A80C-3B755651333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F4197-6810-4FF2-AB89-F7230B69651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="June-2021" sheetId="27" r:id="rId10"/>
     <sheet name="July-2021" sheetId="28" r:id="rId11"/>
     <sheet name="AUG-2021" sheetId="29" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="30" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="165">
   <si>
     <t>Task</t>
   </si>
@@ -493,6 +494,54 @@
   </si>
   <si>
     <t>muji production in change layout and some desigen issues</t>
+  </si>
+  <si>
+    <t>Design changes mobile and ipad  verion</t>
+  </si>
+  <si>
+    <t>Mujidtore</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MJA</t>
+  </si>
+  <si>
+    <t>Registeration page function</t>
+  </si>
+  <si>
+    <t>Mujistore &amp; MJA</t>
+  </si>
+  <si>
+    <t>Design changes                  Registeration page function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design changes             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video quality dropdown          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume search </t>
+  </si>
+  <si>
+    <t>QMVAR V2.O</t>
+  </si>
+  <si>
+    <t>Changed Mobile view design change</t>
+  </si>
+  <si>
+    <t>1.WIP                                 2.completed</t>
+  </si>
+  <si>
+    <t>1.Resume search                         2.penna VPN connection and document verfication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.MJA                               2.Penna </t>
+  </si>
+  <si>
+    <t>1.Resume search                        2.penna VPN connection and cronjop verification</t>
   </si>
 </sst>
 </file>
@@ -803,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1125,6 +1174,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2761,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6813092-7487-46CD-A91B-CBD029655E27}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3036,10 +3088,12 @@
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3049,13 +3103,538 @@
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44424</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44425</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44427</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44428</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44429</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44430</v>
+      </c>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44432</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44433</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44434</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44436</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44437</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44438</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="116">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44439</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C29:F30"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="C22:F23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B770007-5C45-45D5-9F91-DF5D1C262731}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44409</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44410</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44411</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44412</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44413</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44414</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44415</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44416</v>
+      </c>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44417</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44418</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44419</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44420</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44421</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44422</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="100"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44423</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3066,35 +3645,32 @@
       <c r="D17" s="19"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44425</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>44426</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3105,9 +3681,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3118,35 +3693,32 @@
       <c r="D21" s="19"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="18">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3157,35 +3729,32 @@
       <c r="D24" s="19"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44432</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44433</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3196,9 +3765,8 @@
       <c r="D27" s="19"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3209,35 +3777,32 @@
       <c r="D28" s="19"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="100"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3248,26 +3813,25 @@
       <c r="D31" s="19"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="10">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="116">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="11">
+        <v>44439</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="33"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="C2:F2"/>
+  <mergeCells count="4">
     <mergeCell ref="C8:F9"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="C29:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F4197-6810-4FF2-AB89-F7230B69651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397BF459-6208-4E68-92BB-6CCF256EA8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="166">
   <si>
     <t>Task</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>1.Resume search                        2.penna VPN connection and cronjop verification</t>
+  </si>
+  <si>
+    <t>issue fix in dasboard</t>
   </si>
 </sst>
 </file>
@@ -983,6 +986,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,9 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1755,12 +1758,12 @@
       <c r="B6" s="11">
         <v>44352</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -1770,10 +1773,10 @@
       <c r="B7" s="11">
         <v>44353</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -1878,12 +1881,12 @@
       <c r="B13" s="11">
         <v>44359</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -1893,10 +1896,10 @@
       <c r="B14" s="11">
         <v>44360</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1">
@@ -1906,12 +1909,12 @@
       <c r="B15" s="11">
         <v>44361</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
@@ -1997,12 +2000,12 @@
       <c r="B20" s="11">
         <v>44366</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2012,10 +2015,10 @@
       <c r="B21" s="11">
         <v>44367</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2120,10 +2123,10 @@
       <c r="B27" s="11">
         <v>44373</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -2133,10 +2136,10 @@
       <c r="B28" s="11">
         <v>44374</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2305,12 +2308,12 @@
       <c r="B4" s="11">
         <v>44380</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -2320,10 +2323,10 @@
       <c r="B5" s="11">
         <v>44381</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
@@ -2428,12 +2431,12 @@
       <c r="B11" s="11">
         <v>44387</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -2443,10 +2446,10 @@
       <c r="B12" s="11">
         <v>44388</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
@@ -2551,12 +2554,12 @@
       <c r="B18" s="11">
         <v>44394</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -2566,10 +2569,10 @@
       <c r="B19" s="11">
         <v>44395</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14.4" customHeight="1">
@@ -2617,12 +2620,12 @@
       <c r="B22" s="11">
         <v>44398</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
@@ -2670,12 +2673,12 @@
       <c r="B25" s="11">
         <v>44401</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -2685,10 +2688,10 @@
       <c r="B26" s="11">
         <v>44402</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1">
@@ -2814,7 +2817,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:F32"/>
+      <selection activeCell="C31" sqref="C31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2856,12 +2859,12 @@
       <c r="B2" s="11">
         <v>44409</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
@@ -2965,12 +2968,12 @@
       <c r="B8" s="11">
         <v>44415</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -2980,10 +2983,10 @@
       <c r="B9" s="11">
         <v>44416</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -3088,12 +3091,12 @@
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3103,10 +3106,10 @@
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3211,12 +3214,12 @@
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3226,10 +3229,10 @@
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -3334,12 +3337,12 @@
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -3349,10 +3352,10 @@
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="103"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
@@ -3375,7 +3378,7 @@
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="116">
+      <c r="A32" s="52">
         <v>31</v>
       </c>
       <c r="B32" s="11">
@@ -3410,7 +3413,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C8" sqref="C8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3486,10 +3489,15 @@
       <c r="B4" s="11">
         <v>44411</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -3533,10 +3541,10 @@
       <c r="B8" s="11">
         <v>44415</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -3545,10 +3553,10 @@
       <c r="B9" s="11">
         <v>44416</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
@@ -3617,10 +3625,10 @@
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -3629,10 +3637,10 @@
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -3701,10 +3709,10 @@
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -3713,10 +3721,10 @@
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -3785,10 +3793,10 @@
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -3797,10 +3805,10 @@
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="103"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
@@ -3815,7 +3823,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="116">
+      <c r="A32" s="52">
         <v>31</v>
       </c>
       <c r="B32" s="11">
@@ -4610,12 +4618,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -4625,10 +4633,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -4733,12 +4741,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -4748,10 +4756,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -4837,12 +4845,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4852,12 +4860,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4867,10 +4875,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -4975,12 +4983,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4990,10 +4998,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5192,11 +5200,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -5205,11 +5213,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -5313,11 +5321,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -5326,11 +5334,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -5434,11 +5442,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -5447,11 +5455,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -5536,11 +5544,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -5549,11 +5557,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -5562,11 +5570,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -5749,13 +5757,13 @@
       <c r="B2" s="11">
         <v>44197</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -5764,11 +5772,11 @@
       <c r="B3" s="11">
         <v>44198</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -5777,11 +5785,11 @@
       <c r="B4" s="11">
         <v>44199</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -5900,11 +5908,11 @@
       <c r="B11" s="11">
         <v>44206</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -5970,13 +5978,13 @@
       <c r="B15" s="11">
         <v>44210</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -5985,11 +5993,11 @@
       <c r="B16" s="11">
         <v>44211</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -5998,11 +6006,11 @@
       <c r="B17" s="11">
         <v>44212</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -6011,11 +6019,11 @@
       <c r="B18" s="11">
         <v>44213</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -6024,13 +6032,13 @@
       <c r="B19" s="11">
         <v>44214</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -6115,13 +6123,13 @@
       <c r="B24" s="11">
         <v>44219</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -6130,11 +6138,11 @@
       <c r="B25" s="11">
         <v>44220</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -6162,13 +6170,13 @@
       <c r="B27" s="11">
         <v>44222</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -6194,13 +6202,13 @@
       <c r="B29" s="11">
         <v>44224</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -6435,23 +6443,23 @@
       <c r="B7" s="11">
         <v>44233</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>44234</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -6537,23 +6545,23 @@
       <c r="B14" s="11">
         <v>44240</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>44241</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -6639,23 +6647,23 @@
       <c r="B21" s="11">
         <v>44247</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>44248</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
@@ -6741,23 +6749,23 @@
       <c r="B28" s="11">
         <v>44254</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>44255</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="11"/>
@@ -6917,13 +6925,13 @@
       <c r="B7" s="11">
         <v>44261</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -6932,11 +6940,11 @@
       <c r="B8" s="11">
         <v>44262</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -7040,13 +7048,13 @@
       <c r="B14" s="11">
         <v>44268</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -7055,11 +7063,11 @@
       <c r="B15" s="11">
         <v>44269</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -7163,12 +7171,12 @@
       <c r="B21" s="11">
         <v>44275</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7178,10 +7186,10 @@
       <c r="B22" s="11">
         <v>44276</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7296,12 +7304,12 @@
       <c r="B28" s="11">
         <v>44282</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7311,10 +7319,10 @@
       <c r="B29" s="11">
         <v>44283</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -7526,12 +7534,12 @@
       <c r="B4" s="11">
         <v>44289</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
@@ -7541,10 +7549,10 @@
       <c r="B5" s="11">
         <v>44290</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -7573,12 +7581,12 @@
       <c r="B7" s="11">
         <v>44292</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7645,12 +7653,12 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -7660,10 +7668,10 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -7692,12 +7700,12 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7707,10 +7715,10 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -7758,12 +7766,12 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
@@ -7773,10 +7781,10 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
@@ -7881,10 +7889,10 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -7894,10 +7902,10 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
@@ -8116,12 +8124,12 @@
       <c r="B2" s="11">
         <v>44317</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="19"/>
       <c r="H2" s="33"/>
     </row>
@@ -8132,10 +8140,10 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -8240,12 +8248,12 @@
       <c r="B9" s="11">
         <v>44324</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -8255,10 +8263,10 @@
       <c r="B10" s="11">
         <v>44325</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1">
@@ -8344,12 +8352,12 @@
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -8359,10 +8367,10 @@
       <c r="B16" s="11">
         <v>44331</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
@@ -8372,10 +8380,10 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -8482,12 +8490,12 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
@@ -8497,10 +8505,10 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397BF459-6208-4E68-92BB-6CCF256EA8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C54018-823C-4BBB-8CEC-6C11F9560851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="June-2021" sheetId="27" r:id="rId10"/>
     <sheet name="July-2021" sheetId="28" r:id="rId11"/>
     <sheet name="AUG-2021" sheetId="29" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId13"/>
+    <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="172">
   <si>
     <t>Task</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>issue fix in dasboard</t>
+  </si>
+  <si>
+    <t>1.MJA</t>
+  </si>
+  <si>
+    <t>1.Resume Search</t>
+  </si>
+  <si>
+    <t>1.Resume Search issue fixing,            2.Employee Registeration issue fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Saved Resume ,                2.Search agent page  disgns       </t>
+  </si>
+  <si>
+    <t>1.Resume Search fix validation,                           2.Employee Registeration  fix validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add country and state in database       </t>
   </si>
 </sst>
 </file>
@@ -3412,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B770007-5C45-45D5-9F91-DF5D1C262731}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3506,10 +3524,12 @@
       <c r="B5" s="11">
         <v>44412</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -3518,10 +3538,10 @@
       <c r="B6" s="11">
         <v>44413</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -3530,57 +3550,88 @@
       <c r="B7" s="11">
         <v>44414</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="19"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="11">
         <v>44415</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>44416</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>44417</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>44418</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
@@ -3589,10 +3640,12 @@
       <c r="B12" s="11">
         <v>44419</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -3601,70 +3654,100 @@
       <c r="B13" s="11">
         <v>44420</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>44421</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44424</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44425</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
@@ -3673,10 +3756,12 @@
       <c r="B19" s="11">
         <v>44426</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="C19" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -3685,22 +3770,28 @@
       <c r="B20" s="11">
         <v>44427</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44428</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>171</v>
+      </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
@@ -3835,11 +3926,12 @@
       <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="C15:F16"/>
+  <mergeCells count="5">
     <mergeCell ref="C22:F23"/>
     <mergeCell ref="C29:F30"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="C19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C54018-823C-4BBB-8CEC-6C11F9560851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A4DD7A-1133-4643-9146-1B5340E0AA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="172">
   <si>
     <t>Task</t>
   </si>
@@ -3430,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B770007-5C45-45D5-9F91-DF5D1C262731}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3793,17 +3793,23 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="14.4" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="C22" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -3812,10 +3818,16 @@
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
+      <c r="C23" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -3824,10 +3836,16 @@
       <c r="B24" s="11">
         <v>44431</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -3836,10 +3854,16 @@
       <c r="B25" s="11">
         <v>44432</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
@@ -3849,7 +3873,7 @@
         <v>44433</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
@@ -3861,7 +3885,7 @@
         <v>44434</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
@@ -3926,14 +3950,14 @@
       <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C22:F23"/>
+  <mergeCells count="4">
     <mergeCell ref="C29:F30"/>
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="C19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A4DD7A-1133-4643-9146-1B5340E0AA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346787ED-5E59-4A9B-B7BC-9A1325C03189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="173">
   <si>
     <t>Task</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t xml:space="preserve">Add country and state in database       </t>
+  </si>
+  <si>
+    <t>Jop Seaker Sign in page and sign up page design</t>
   </si>
 </sst>
 </file>
@@ -3431,7 +3434,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F30"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3872,10 +3875,12 @@
       <c r="B26" s="11">
         <v>44433</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -3884,10 +3889,10 @@
       <c r="B27" s="11">
         <v>44434</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -3896,22 +3901,34 @@
       <c r="B28" s="11">
         <v>44435</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
+      <c r="C29" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -3920,41 +3937,59 @@
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="C30" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="11">
         <v>44438</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8">
       <c r="A32" s="52">
         <v>31</v>
       </c>
       <c r="B32" s="11">
         <v>44439</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C29:F30"/>
     <mergeCell ref="C5:F6"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="C19:F20"/>
+    <mergeCell ref="C26:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346787ED-5E59-4A9B-B7BC-9A1325C03189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6FC3EE-97B7-4A50-AEFD-F4D689CEDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="July-2021" sheetId="28" r:id="rId11"/>
     <sheet name="AUG-2021" sheetId="29" r:id="rId12"/>
     <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
+    <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="182">
   <si>
     <t>Task</t>
   </si>
@@ -566,6 +568,33 @@
   </si>
   <si>
     <t>Jop Seaker Sign in page and sign up page design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaisokku </t>
+  </si>
+  <si>
+    <t>add bootstrap Single page web design</t>
+  </si>
+  <si>
+    <t>Single page web design alignment</t>
+  </si>
+  <si>
+    <t>Jopseker page issue</t>
+  </si>
+  <si>
+    <t>Design Document</t>
+  </si>
+  <si>
+    <t>Single page design</t>
+  </si>
+  <si>
+    <t>Merge code in RPA sales</t>
+  </si>
+  <si>
+    <t>Comtent managemet</t>
+  </si>
+  <si>
+    <t>Admin Login</t>
   </si>
 </sst>
 </file>
@@ -876,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1201,6 +1230,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3433,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B770007-5C45-45D5-9F91-DF5D1C262731}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3993,6 +4040,478 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F61788-A275-43F2-8BD9-E609BD843902}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44470</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44471</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44472</v>
+      </c>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44473</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44474</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44475</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44476</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44477</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44478</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44479</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44480</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44482</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44483</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44484</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44485</v>
+      </c>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44486</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="C15:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BBC958-2B65-47AF-A5CC-9F4CCF5FDCA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6FC3EE-97B7-4A50-AEFD-F4D689CEDAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F798ED-4135-4A2B-B28F-B49912B70B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="183">
   <si>
     <t>Task</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>Admin Login</t>
+  </si>
+  <si>
+    <t>Demo managemet</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1042,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,24 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1826,12 +1829,12 @@
       <c r="B6" s="11">
         <v>44352</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -1841,10 +1844,10 @@
       <c r="B7" s="11">
         <v>44353</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -1949,12 +1952,12 @@
       <c r="B13" s="11">
         <v>44359</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -1964,10 +1967,10 @@
       <c r="B14" s="11">
         <v>44360</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1">
@@ -1977,12 +1980,12 @@
       <c r="B15" s="11">
         <v>44361</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
@@ -2068,12 +2071,12 @@
       <c r="B20" s="11">
         <v>44366</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2083,10 +2086,10 @@
       <c r="B21" s="11">
         <v>44367</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2191,10 +2194,10 @@
       <c r="B27" s="11">
         <v>44373</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -2204,10 +2207,10 @@
       <c r="B28" s="11">
         <v>44374</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2376,12 +2379,12 @@
       <c r="B4" s="11">
         <v>44380</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -2391,10 +2394,10 @@
       <c r="B5" s="11">
         <v>44381</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
@@ -2499,12 +2502,12 @@
       <c r="B11" s="11">
         <v>44387</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -2514,10 +2517,10 @@
       <c r="B12" s="11">
         <v>44388</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
@@ -2622,12 +2625,12 @@
       <c r="B18" s="11">
         <v>44394</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -2637,10 +2640,10 @@
       <c r="B19" s="11">
         <v>44395</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14.4" customHeight="1">
@@ -2688,12 +2691,12 @@
       <c r="B22" s="11">
         <v>44398</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
@@ -2741,12 +2744,12 @@
       <c r="B25" s="11">
         <v>44401</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -2756,10 +2759,10 @@
       <c r="B26" s="11">
         <v>44402</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1">
@@ -2927,12 +2930,12 @@
       <c r="B2" s="11">
         <v>44409</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
@@ -3036,12 +3039,12 @@
       <c r="B8" s="11">
         <v>44415</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -3051,10 +3054,10 @@
       <c r="B9" s="11">
         <v>44416</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -3159,12 +3162,12 @@
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3174,10 +3177,10 @@
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3282,12 +3285,12 @@
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3297,10 +3300,10 @@
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -3405,12 +3408,12 @@
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -3420,10 +3423,10 @@
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="110"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
@@ -3574,12 +3577,12 @@
       <c r="B5" s="11">
         <v>44412</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -3588,10 +3591,10 @@
       <c r="B6" s="11">
         <v>44413</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -3690,12 +3693,12 @@
       <c r="B12" s="11">
         <v>44419</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -3704,10 +3707,10 @@
       <c r="B13" s="11">
         <v>44420</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
     </row>
     <row r="14" spans="1:6" ht="43.2">
       <c r="A14" s="1">
@@ -3806,12 +3809,12 @@
       <c r="B19" s="11">
         <v>44426</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -3820,10 +3823,10 @@
       <c r="B20" s="11">
         <v>44427</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6" ht="28.8">
       <c r="A21" s="1">
@@ -3922,12 +3925,12 @@
       <c r="B26" s="11">
         <v>44433</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -3936,10 +3939,10 @@
       <c r="B27" s="11">
         <v>44434</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="110"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -4048,7 +4051,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4106,12 +4109,12 @@
       <c r="B3" s="11">
         <v>44471</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -4120,10 +4123,10 @@
       <c r="B4" s="11">
         <v>44472</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
       <c r="A5" s="1">
@@ -4222,12 +4225,12 @@
       <c r="B10" s="11">
         <v>44478</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -4236,10 +4239,10 @@
       <c r="B11" s="11">
         <v>44479</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1">
       <c r="A12" s="1">
@@ -4302,12 +4305,12 @@
       <c r="B15" s="11">
         <v>44483</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -4316,10 +4319,10 @@
       <c r="B16" s="11">
         <v>44484</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -4328,10 +4331,10 @@
       <c r="B17" s="11">
         <v>44485</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -4340,10 +4343,10 @@
       <c r="B18" s="11">
         <v>44486</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1">
       <c r="A19" s="1">
@@ -4367,40 +4370,72 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
+      <c r="B20" s="11">
+        <v>44488</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="11">
+        <v>44489</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="11">
+        <v>44490</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="11">
+        <v>44491</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6">
@@ -4428,20 +4463,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -5288,12 +5323,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -5303,10 +5338,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -5411,12 +5446,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -5426,10 +5461,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5515,12 +5550,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -5530,12 +5565,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5545,10 +5580,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5653,12 +5688,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5668,10 +5703,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5870,11 +5905,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -5883,11 +5918,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -5991,11 +6026,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -6004,11 +6039,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -6112,11 +6147,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -6125,11 +6160,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -6214,11 +6249,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -6227,11 +6262,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -6240,11 +6275,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -6427,13 +6462,13 @@
       <c r="B2" s="11">
         <v>44197</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -6442,11 +6477,11 @@
       <c r="B3" s="11">
         <v>44198</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -6455,11 +6490,11 @@
       <c r="B4" s="11">
         <v>44199</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -6578,11 +6613,11 @@
       <c r="B11" s="11">
         <v>44206</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -6648,13 +6683,13 @@
       <c r="B15" s="11">
         <v>44210</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -6663,11 +6698,11 @@
       <c r="B16" s="11">
         <v>44211</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -6676,11 +6711,11 @@
       <c r="B17" s="11">
         <v>44212</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -6689,11 +6724,11 @@
       <c r="B18" s="11">
         <v>44213</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -6702,13 +6737,13 @@
       <c r="B19" s="11">
         <v>44214</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -6793,13 +6828,13 @@
       <c r="B24" s="11">
         <v>44219</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -6808,11 +6843,11 @@
       <c r="B25" s="11">
         <v>44220</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -6840,13 +6875,13 @@
       <c r="B27" s="11">
         <v>44222</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -6872,13 +6907,13 @@
       <c r="B29" s="11">
         <v>44224</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -7113,23 +7148,23 @@
       <c r="B7" s="11">
         <v>44233</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>44234</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -7215,23 +7250,23 @@
       <c r="B14" s="11">
         <v>44240</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>44241</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -7317,23 +7352,23 @@
       <c r="B21" s="11">
         <v>44247</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>44248</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
@@ -7419,23 +7454,23 @@
       <c r="B28" s="11">
         <v>44254</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>44255</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="11"/>
@@ -7595,13 +7630,13 @@
       <c r="B7" s="11">
         <v>44261</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -7610,11 +7645,11 @@
       <c r="B8" s="11">
         <v>44262</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -7718,13 +7753,13 @@
       <c r="B14" s="11">
         <v>44268</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -7733,11 +7768,11 @@
       <c r="B15" s="11">
         <v>44269</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -7841,12 +7876,12 @@
       <c r="B21" s="11">
         <v>44275</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7856,10 +7891,10 @@
       <c r="B22" s="11">
         <v>44276</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7974,12 +8009,12 @@
       <c r="B28" s="11">
         <v>44282</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -7989,10 +8024,10 @@
       <c r="B29" s="11">
         <v>44283</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -8204,12 +8239,12 @@
       <c r="B4" s="11">
         <v>44289</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
@@ -8219,10 +8254,10 @@
       <c r="B5" s="11">
         <v>44290</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -8251,12 +8286,12 @@
       <c r="B7" s="11">
         <v>44292</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -8323,12 +8358,12 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -8338,10 +8373,10 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -8370,12 +8405,12 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -8385,10 +8420,10 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -8436,12 +8471,12 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
@@ -8451,10 +8486,10 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
@@ -8559,10 +8594,10 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -8572,10 +8607,10 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
@@ -8794,12 +8829,12 @@
       <c r="B2" s="11">
         <v>44317</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="19"/>
       <c r="H2" s="33"/>
     </row>
@@ -8810,10 +8845,10 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -8918,12 +8953,12 @@
       <c r="B9" s="11">
         <v>44324</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -8933,10 +8968,10 @@
       <c r="B10" s="11">
         <v>44325</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1">
@@ -9022,12 +9057,12 @@
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -9037,10 +9072,10 @@
       <c r="B16" s="11">
         <v>44331</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
@@ -9050,10 +9085,10 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -9160,12 +9195,12 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
@@ -9175,10 +9210,10 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F798ED-4135-4A2B-B28F-B49912B70B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB53C8D-7AB0-4579-815F-983E059140C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="AUG-2021" sheetId="29" r:id="rId12"/>
     <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
     <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId15"/>
+    <sheet name="Nov-2021" sheetId="32" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="197">
   <si>
     <t>Task</t>
   </si>
@@ -598,6 +598,48 @@
   </si>
   <si>
     <t>Demo managemet</t>
+  </si>
+  <si>
+    <t>Kaisokku</t>
+  </si>
+  <si>
+    <t>Fronent design changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronent design changes         Content management Insert issue         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Support form   and Map  </t>
+  </si>
+  <si>
+    <t>31-11-2021</t>
+  </si>
+  <si>
+    <t>Add signin and signup in forend</t>
+  </si>
+  <si>
+    <t>Design changes in signin and signup</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Kaisokku                           MJA</t>
+  </si>
+  <si>
+    <t>1.Add terms and condition, privacy and policy                        2.Add african countries</t>
+  </si>
+  <si>
+    <t>1.completed                        2.WIP</t>
+  </si>
+  <si>
+    <t>Add african countries</t>
+  </si>
+  <si>
+    <t>Kaisokku &amp; QMVAR</t>
+  </si>
+  <si>
+    <t>Issue fixing                                      Design changing</t>
   </si>
 </sst>
 </file>
@@ -908,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1250,6 +1292,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4050,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F61788-A275-43F2-8BD9-E609BD843902}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4097,10 +4142,10 @@
       <c r="D2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -4141,10 +4186,10 @@
       <c r="D5" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -4159,10 +4204,10 @@
       <c r="D6" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -4177,10 +4222,10 @@
       <c r="D7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
       <c r="A8" s="1">
@@ -4195,10 +4240,10 @@
       <c r="D8" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -4213,10 +4258,10 @@
       <c r="D9" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
@@ -4257,10 +4302,10 @@
       <c r="D12" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -4275,10 +4320,10 @@
       <c r="D13" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
@@ -4293,10 +4338,10 @@
       <c r="D14" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1">
       <c r="A15" s="1">
@@ -4361,10 +4406,10 @@
       <c r="D19" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -4379,10 +4424,10 @@
       <c r="D20" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="58"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
@@ -4397,10 +4442,10 @@
       <c r="D21" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" customHeight="1">
       <c r="A22" s="1">
@@ -4415,10 +4460,10 @@
       <c r="D22" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -4433,106 +4478,160 @@
       <c r="D23" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="11">
+        <v>44492</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="11">
+        <v>44493</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
     </row>
     <row r="26" spans="1:6" ht="14.4" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="B26" s="11">
+        <v>44494</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="B27" s="11">
+        <v>44495</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="11">
+        <v>44496</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="11">
+        <v>44497</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="11">
+        <v>44498</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="11">
+        <v>44499</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="11">
+        <v>44500</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C15:F18"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="C31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4540,12 +4639,502 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BBC958-2B65-47AF-A5CC-9F4CCF5FDCA5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44501</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44502</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44503</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44504</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44505</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44506</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44507</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44508</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44509</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44510</v>
+      </c>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44511</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44512</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44513</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44514</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44515</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44516</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44517</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44518</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44519</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44520</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44521</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44522</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44523</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44524</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44525</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44526</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44527</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44528</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44529</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44530</v>
+      </c>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="107"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="C31:F32"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="C14:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB53C8D-7AB0-4579-815F-983E059140C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFBAE0-2D32-4EC9-A5A4-D5AD925CBD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="199">
   <si>
     <t>Task</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>Issue fixing                                      Design changing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QMVAR</t>
+  </si>
+  <si>
+    <t>Design changing</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1083,24 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1874,12 +1862,12 @@
       <c r="B6" s="11">
         <v>44352</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -1889,10 +1877,10 @@
       <c r="B7" s="11">
         <v>44353</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -1997,12 +1985,12 @@
       <c r="B13" s="11">
         <v>44359</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -2012,10 +2000,10 @@
       <c r="B14" s="11">
         <v>44360</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1">
@@ -2025,12 +2013,12 @@
       <c r="B15" s="11">
         <v>44361</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
@@ -2116,12 +2104,12 @@
       <c r="B20" s="11">
         <v>44366</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2131,10 +2119,10 @@
       <c r="B21" s="11">
         <v>44367</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2239,10 +2227,10 @@
       <c r="B27" s="11">
         <v>44373</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="107"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -2252,10 +2240,10 @@
       <c r="B28" s="11">
         <v>44374</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2424,12 +2412,12 @@
       <c r="B4" s="11">
         <v>44380</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -2439,10 +2427,10 @@
       <c r="B5" s="11">
         <v>44381</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
@@ -2547,12 +2535,12 @@
       <c r="B11" s="11">
         <v>44387</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -2562,10 +2550,10 @@
       <c r="B12" s="11">
         <v>44388</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
@@ -2670,12 +2658,12 @@
       <c r="B18" s="11">
         <v>44394</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -2685,10 +2673,10 @@
       <c r="B19" s="11">
         <v>44395</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14.4" customHeight="1">
@@ -2736,12 +2724,12 @@
       <c r="B22" s="11">
         <v>44398</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
@@ -2789,12 +2777,12 @@
       <c r="B25" s="11">
         <v>44401</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="107"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -2804,10 +2792,10 @@
       <c r="B26" s="11">
         <v>44402</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1">
@@ -2975,12 +2963,12 @@
       <c r="B2" s="11">
         <v>44409</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
@@ -3084,12 +3072,12 @@
       <c r="B8" s="11">
         <v>44415</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -3099,10 +3087,10 @@
       <c r="B9" s="11">
         <v>44416</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -3207,12 +3195,12 @@
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3222,10 +3210,10 @@
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3330,12 +3318,12 @@
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3345,10 +3333,10 @@
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -3453,12 +3441,12 @@
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -3468,10 +3456,10 @@
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
@@ -3622,12 +3610,12 @@
       <c r="B5" s="11">
         <v>44412</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -3636,10 +3624,10 @@
       <c r="B6" s="11">
         <v>44413</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -3738,12 +3726,12 @@
       <c r="B12" s="11">
         <v>44419</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -3752,10 +3740,10 @@
       <c r="B13" s="11">
         <v>44420</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6" ht="43.2">
       <c r="A14" s="1">
@@ -3854,12 +3842,12 @@
       <c r="B19" s="11">
         <v>44426</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -3868,10 +3856,10 @@
       <c r="B20" s="11">
         <v>44427</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:6" ht="28.8">
       <c r="A21" s="1">
@@ -3970,12 +3958,12 @@
       <c r="B26" s="11">
         <v>44433</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -3984,10 +3972,10 @@
       <c r="B27" s="11">
         <v>44434</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -4154,12 +4142,12 @@
       <c r="B3" s="11">
         <v>44471</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -4168,10 +4156,10 @@
       <c r="B4" s="11">
         <v>44472</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
       <c r="A5" s="1">
@@ -4270,12 +4258,12 @@
       <c r="B10" s="11">
         <v>44478</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -4284,10 +4272,10 @@
       <c r="B11" s="11">
         <v>44479</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1">
       <c r="A12" s="1">
@@ -4350,12 +4338,12 @@
       <c r="B15" s="11">
         <v>44483</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -4364,10 +4352,10 @@
       <c r="B16" s="11">
         <v>44484</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -4376,10 +4364,10 @@
       <c r="B17" s="11">
         <v>44485</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -4388,10 +4376,10 @@
       <c r="B18" s="11">
         <v>44486</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1">
       <c r="A19" s="1">
@@ -4490,12 +4478,12 @@
       <c r="B24" s="11">
         <v>44492</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -4504,10 +4492,10 @@
       <c r="B25" s="11">
         <v>44493</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
     </row>
     <row r="26" spans="1:6" ht="14.4" customHeight="1">
       <c r="A26" s="1">
@@ -4606,12 +4594,12 @@
       <c r="B31" s="11">
         <v>44499</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
@@ -4620,10 +4608,10 @@
       <c r="B32" s="11">
         <v>44500</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4641,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BBC958-2B65-47AF-A5CC-9F4CCF5FDCA5}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4736,12 +4724,12 @@
       <c r="B5" s="11">
         <v>44504</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -4768,12 +4756,12 @@
       <c r="B7" s="11">
         <v>44506</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
       <c r="A8" s="1">
@@ -4782,10 +4770,10 @@
       <c r="B8" s="11">
         <v>44507</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
     </row>
     <row r="9" spans="1:6" ht="28.8">
       <c r="A9" s="1">
@@ -4812,12 +4800,12 @@
       <c r="B10" s="11">
         <v>44509</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -4826,10 +4814,10 @@
       <c r="B11" s="11">
         <v>44510</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1">
       <c r="A12" s="1">
@@ -4874,12 +4862,12 @@
       <c r="B14" s="11">
         <v>44513</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1">
       <c r="A15" s="1">
@@ -4888,10 +4876,10 @@
       <c r="B15" s="11">
         <v>44514</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1">
       <c r="A16" s="1">
@@ -4990,10 +4978,12 @@
       <c r="B21" s="11">
         <v>44520</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" customHeight="1">
       <c r="A22" s="1">
@@ -5002,10 +4992,10 @@
       <c r="B22" s="11">
         <v>44521</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -5014,10 +5004,16 @@
       <c r="B23" s="11">
         <v>44522</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" customHeight="1">
       <c r="A24" s="1">
@@ -5026,10 +5022,16 @@
       <c r="B24" s="11">
         <v>44523</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="C24" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -5038,10 +5040,16 @@
       <c r="B25" s="11">
         <v>44524</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
+      <c r="C25" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" customHeight="1">
       <c r="A26" s="1">
@@ -5050,10 +5058,16 @@
       <c r="B26" s="11">
         <v>44525</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -5062,10 +5076,16 @@
       <c r="B27" s="11">
         <v>44526</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -5110,10 +5130,10 @@
       <c r="B31" s="11">
         <v>44530</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="101"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
@@ -5122,18 +5142,19 @@
       <c r="B32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C31:F32"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5912,12 +5933,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -5927,10 +5948,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -6035,12 +6056,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -6050,10 +6071,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -6139,12 +6160,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -6154,12 +6175,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -6169,10 +6190,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -6277,12 +6298,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -6292,10 +6313,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -6494,11 +6515,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -6507,11 +6528,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -6615,11 +6636,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -6628,11 +6649,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -6736,11 +6757,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -6749,11 +6770,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -6838,11 +6859,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -6851,11 +6872,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -6864,11 +6885,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -7051,13 +7072,13 @@
       <c r="B2" s="11">
         <v>44197</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -7066,11 +7087,11 @@
       <c r="B3" s="11">
         <v>44198</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -7079,11 +7100,11 @@
       <c r="B4" s="11">
         <v>44199</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -7202,11 +7223,11 @@
       <c r="B11" s="11">
         <v>44206</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -7272,13 +7293,13 @@
       <c r="B15" s="11">
         <v>44210</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -7287,11 +7308,11 @@
       <c r="B16" s="11">
         <v>44211</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -7300,11 +7321,11 @@
       <c r="B17" s="11">
         <v>44212</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -7313,11 +7334,11 @@
       <c r="B18" s="11">
         <v>44213</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -7326,13 +7347,13 @@
       <c r="B19" s="11">
         <v>44214</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -7417,13 +7438,13 @@
       <c r="B24" s="11">
         <v>44219</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -7432,11 +7453,11 @@
       <c r="B25" s="11">
         <v>44220</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -7464,13 +7485,13 @@
       <c r="B27" s="11">
         <v>44222</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -7496,13 +7517,13 @@
       <c r="B29" s="11">
         <v>44224</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -7737,23 +7758,23 @@
       <c r="B7" s="11">
         <v>44233</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>44234</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -7839,23 +7860,23 @@
       <c r="B14" s="11">
         <v>44240</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>44241</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -7941,23 +7962,23 @@
       <c r="B21" s="11">
         <v>44247</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>44248</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
@@ -8043,23 +8064,23 @@
       <c r="B28" s="11">
         <v>44254</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>44255</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="11"/>
@@ -8219,13 +8240,13 @@
       <c r="B7" s="11">
         <v>44261</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -8234,11 +8255,11 @@
       <c r="B8" s="11">
         <v>44262</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -8342,13 +8363,13 @@
       <c r="B14" s="11">
         <v>44268</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -8357,11 +8378,11 @@
       <c r="B15" s="11">
         <v>44269</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -8465,12 +8486,12 @@
       <c r="B21" s="11">
         <v>44275</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -8480,10 +8501,10 @@
       <c r="B22" s="11">
         <v>44276</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -8598,12 +8619,12 @@
       <c r="B28" s="11">
         <v>44282</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -8613,10 +8634,10 @@
       <c r="B29" s="11">
         <v>44283</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -8828,12 +8849,12 @@
       <c r="B4" s="11">
         <v>44289</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
@@ -8843,10 +8864,10 @@
       <c r="B5" s="11">
         <v>44290</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -8875,12 +8896,12 @@
       <c r="B7" s="11">
         <v>44292</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -8947,12 +8968,12 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -8962,10 +8983,10 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -8994,12 +9015,12 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -9009,10 +9030,10 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -9060,12 +9081,12 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
@@ -9075,10 +9096,10 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
@@ -9183,10 +9204,10 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -9196,10 +9217,10 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
@@ -9418,12 +9439,12 @@
       <c r="B2" s="11">
         <v>44317</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="19"/>
       <c r="H2" s="33"/>
     </row>
@@ -9434,10 +9455,10 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -9542,12 +9563,12 @@
       <c r="B9" s="11">
         <v>44324</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -9557,10 +9578,10 @@
       <c r="B10" s="11">
         <v>44325</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1">
@@ -9646,12 +9667,12 @@
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -9661,10 +9682,10 @@
       <c r="B16" s="11">
         <v>44331</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
@@ -9674,10 +9695,10 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="118"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -9784,12 +9805,12 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
@@ -9799,10 +9820,10 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFBAE0-2D32-4EC9-A5A4-D5AD925CBD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5B9FF-AD1E-44B0-B955-36449636AA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
     <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
     <sheet name="Nov-2021" sheetId="32" r:id="rId15"/>
+    <sheet name="Dec-2021" sheetId="33" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="34" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="208">
   <si>
     <t>Task</t>
   </si>
@@ -646,6 +648,36 @@
   </si>
   <si>
     <t>Design changing</t>
+  </si>
+  <si>
+    <t>Penna</t>
+  </si>
+  <si>
+    <t>Add loading  page and validation</t>
+  </si>
+  <si>
+    <t>Add Email Sender</t>
+  </si>
+  <si>
+    <t>change code in server side to client side</t>
+  </si>
+  <si>
+    <t>About us &amp; Services - Provide one line space between Learn more button and text
+---Demo link button not working
+---Navigate Hayaai contact page in new tab
+---Mention all details in support mail</t>
+  </si>
+  <si>
+    <t>MSAccess</t>
+  </si>
+  <si>
+    <t>Documententation</t>
+  </si>
+  <si>
+    <t>Kaisokku                            Penna</t>
+  </si>
+  <si>
+    <t>IE design changes                             Get data error fixing</t>
   </si>
 </sst>
 </file>
@@ -956,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1284,6 +1316,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4629,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BBC958-2B65-47AF-A5CC-9F4CCF5FDCA5}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E30" sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5094,10 +5135,12 @@
       <c r="B28" s="11">
         <v>44527</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="C28" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
     </row>
     <row r="29" spans="1:6" ht="14.4" customHeight="1">
       <c r="A29" s="1">
@@ -5106,10 +5149,10 @@
       <c r="B29" s="11">
         <v>44528</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -5117,6 +5160,490 @@
       </c>
       <c r="B30" s="11">
         <v>44529</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44530</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="C28:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB91CFB-88C5-4BBD-B255-A1DFE3CEEAB0}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44531</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44532</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44533</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44534</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44535</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44536</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44537</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="187.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44538</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44539</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44540</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44541</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44542</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44543</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44544</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44545</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44546</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44547</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44548</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44549</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44550</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44551</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44552</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44553</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44554</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44555</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44556</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44557</v>
+      </c>
+      <c r="C28" s="117"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44558</v>
+      </c>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44559</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -5128,34 +5655,44 @@
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>44530</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101"/>
+        <v>44560</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
+      <c r="B32" s="11">
+        <v>44561</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C10:F11"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F8"/>
+  <mergeCells count="4">
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="C21:F22"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C5:F6"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DB7780-75D8-4EF2-975A-E766D4DAC9C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F5B9FF-AD1E-44B0-B955-36449636AA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49B3BB2-E7D7-49DE-AC01-2A64EC29F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
     <sheet name="Nov-2021" sheetId="32" r:id="rId15"/>
     <sheet name="Dec-2021" sheetId="33" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId17"/>
+    <sheet name="Jan-2022" sheetId="34" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="225">
   <si>
     <t>Task</t>
   </si>
@@ -677,7 +677,85 @@
     <t>Kaisokku                            Penna</t>
   </si>
   <si>
-    <t>IE design changes                             Get data error fixing</t>
+    <t>nMVAR                        Expiration notice</t>
+  </si>
+  <si>
+    <t>Completed    WIP</t>
+  </si>
+  <si>
+    <t>MujiStore                         Expiration notice</t>
+  </si>
+  <si>
+    <t>Homepage:
+---Mention all details in support mail
+---Menu bar not aligned properly when there is no videos in home page
+Admin:
+2. Throwing server error when the session expired or timeout in admin
+3. Content Management -- Throwing error in homepage when deleting default content
+--Newly saved content showing in Services section
+--Some text not showing in Content mgt page i.e Why RPA, under Technologys, Our pricing plan and Get in touch section
+--While saving new content display validation message like Edit and Save content
+4. Compatibility Issues:
+--Firefox - Some videos not playing
+--IE/FF--Footer not placed in bottom of the page
+--IE11 - Menu bar not aligned properly
+--IE - Up arrow button not showing
+--IE/FF- User icon, Username and pwd placeholder background color not visible
+--Content not saved submit not working
+--Alignment issue occurred in No of records
+--Edit popup not aligned properly in Video page</t>
+  </si>
+  <si>
+    <t>Homepage:
+1. About us &amp; Services - Provide one line space between Learn more button and text
+---Learn less button not working in Services and also overlapping
+---Mention all details in support mail
+---Enter not working in signin and signup
+Admin:
+2. Forgot password not working hide the button
+---after login make user mgt page as landing page
+3. Throwing server error when the session expired or timeout in admin
+4. Content Management--Some text not showing in Content mgt page i.e Why RPA and under Technologys
+5. Compatibility Issues: IE - Box missing in Services section</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>CR                                                                              Create a page</t>
+  </si>
+  <si>
+    <t>Migration                                                                 Create a page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR         </t>
+  </si>
+  <si>
+    <t>IE design changes                                                                      Get data error fixing</t>
+  </si>
+  <si>
+    <t>Expiration notice</t>
+  </si>
+  <si>
+    <t>Create pages</t>
+  </si>
+  <si>
+    <t>Menus, Customer master functionlity</t>
+  </si>
+  <si>
+    <t>Customer Master List screen</t>
+  </si>
+  <si>
+    <t>Department master and list screen</t>
+  </si>
+  <si>
+    <t>Admin page design and fnctionality</t>
+  </si>
+  <si>
+    <t>Contract input functionlity</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -1122,6 +1200,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1316,15 +1403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1903,12 +1981,12 @@
       <c r="B6" s="11">
         <v>44352</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -1918,10 +1996,10 @@
       <c r="B7" s="11">
         <v>44353</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -2026,12 +2104,12 @@
       <c r="B13" s="11">
         <v>44359</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -2041,10 +2119,10 @@
       <c r="B14" s="11">
         <v>44360</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" customHeight="1">
@@ -2054,12 +2132,12 @@
       <c r="B15" s="11">
         <v>44361</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" customHeight="1">
@@ -2145,12 +2223,12 @@
       <c r="B20" s="11">
         <v>44366</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -2160,10 +2238,10 @@
       <c r="B21" s="11">
         <v>44367</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -2268,10 +2346,10 @@
       <c r="B27" s="11">
         <v>44373</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -2281,10 +2359,10 @@
       <c r="B28" s="11">
         <v>44374</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -2453,12 +2531,12 @@
       <c r="B4" s="11">
         <v>44380</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -2468,10 +2546,10 @@
       <c r="B5" s="11">
         <v>44381</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1">
@@ -2576,12 +2654,12 @@
       <c r="B11" s="11">
         <v>44387</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -2591,10 +2669,10 @@
       <c r="B12" s="11">
         <v>44388</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
@@ -2699,12 +2777,12 @@
       <c r="B18" s="11">
         <v>44394</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -2714,10 +2792,10 @@
       <c r="B19" s="11">
         <v>44395</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14.4" customHeight="1">
@@ -2765,12 +2843,12 @@
       <c r="B22" s="11">
         <v>44398</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
@@ -2818,12 +2896,12 @@
       <c r="B25" s="11">
         <v>44401</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="101"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -2833,10 +2911,10 @@
       <c r="B26" s="11">
         <v>44402</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1">
@@ -3004,12 +3082,12 @@
       <c r="B2" s="11">
         <v>44409</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
@@ -3113,12 +3191,12 @@
       <c r="B8" s="11">
         <v>44415</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -3128,10 +3206,10 @@
       <c r="B9" s="11">
         <v>44416</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -3236,12 +3314,12 @@
       <c r="B15" s="11">
         <v>44422</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3251,10 +3329,10 @@
       <c r="B16" s="11">
         <v>44423</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3359,12 +3437,12 @@
       <c r="B22" s="11">
         <v>44429</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3374,10 +3452,10 @@
       <c r="B23" s="11">
         <v>44430</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -3482,12 +3560,12 @@
       <c r="B29" s="11">
         <v>44436</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="101"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -3497,10 +3575,10 @@
       <c r="B30" s="11">
         <v>44437</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
@@ -3651,12 +3729,12 @@
       <c r="B5" s="11">
         <v>44412</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -3665,10 +3743,10 @@
       <c r="B6" s="11">
         <v>44413</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -3767,12 +3845,12 @@
       <c r="B12" s="11">
         <v>44419</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -3781,10 +3859,10 @@
       <c r="B13" s="11">
         <v>44420</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:6" ht="43.2">
       <c r="A14" s="1">
@@ -3883,12 +3961,12 @@
       <c r="B19" s="11">
         <v>44426</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -3897,10 +3975,10 @@
       <c r="B20" s="11">
         <v>44427</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
     </row>
     <row r="21" spans="1:6" ht="28.8">
       <c r="A21" s="1">
@@ -3999,12 +4077,12 @@
       <c r="B26" s="11">
         <v>44433</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="101"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -4013,10 +4091,10 @@
       <c r="B27" s="11">
         <v>44434</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -4183,12 +4261,12 @@
       <c r="B3" s="11">
         <v>44471</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -4197,10 +4275,10 @@
       <c r="B4" s="11">
         <v>44472</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
       <c r="A5" s="1">
@@ -4299,12 +4377,12 @@
       <c r="B10" s="11">
         <v>44478</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -4313,10 +4391,10 @@
       <c r="B11" s="11">
         <v>44479</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1">
       <c r="A12" s="1">
@@ -4379,12 +4457,12 @@
       <c r="B15" s="11">
         <v>44483</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -4393,10 +4471,10 @@
       <c r="B16" s="11">
         <v>44484</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -4405,10 +4483,10 @@
       <c r="B17" s="11">
         <v>44485</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -4417,10 +4495,10 @@
       <c r="B18" s="11">
         <v>44486</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" customHeight="1">
       <c r="A19" s="1">
@@ -4519,12 +4597,12 @@
       <c r="B24" s="11">
         <v>44492</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="101"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -4533,10 +4611,10 @@
       <c r="B25" s="11">
         <v>44493</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="107"/>
     </row>
     <row r="26" spans="1:6" ht="14.4" customHeight="1">
       <c r="A26" s="1">
@@ -4635,12 +4713,12 @@
       <c r="B31" s="11">
         <v>44499</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="101"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
@@ -4649,10 +4727,10 @@
       <c r="B32" s="11">
         <v>44500</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4765,12 +4843,12 @@
       <c r="B5" s="11">
         <v>44504</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -4797,12 +4875,12 @@
       <c r="B7" s="11">
         <v>44506</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
       <c r="A8" s="1">
@@ -4811,10 +4889,10 @@
       <c r="B8" s="11">
         <v>44507</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="28.8">
       <c r="A9" s="1">
@@ -4841,12 +4919,12 @@
       <c r="B10" s="11">
         <v>44509</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -4855,10 +4933,10 @@
       <c r="B11" s="11">
         <v>44510</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1">
       <c r="A12" s="1">
@@ -4903,12 +4981,12 @@
       <c r="B14" s="11">
         <v>44513</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1">
       <c r="A15" s="1">
@@ -4917,10 +4995,10 @@
       <c r="B15" s="11">
         <v>44514</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1">
       <c r="A16" s="1">
@@ -5019,12 +5097,12 @@
       <c r="B21" s="11">
         <v>44520</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" customHeight="1">
       <c r="A22" s="1">
@@ -5033,10 +5111,10 @@
       <c r="B22" s="11">
         <v>44521</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -5135,12 +5213,12 @@
       <c r="B28" s="11">
         <v>44527</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
     </row>
     <row r="29" spans="1:6" ht="14.4" customHeight="1">
       <c r="A29" s="1">
@@ -5149,10 +5227,10 @@
       <c r="B29" s="11">
         <v>44528</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -5197,19 +5275,19 @@
       <c r="B32" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C28:F29"/>
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C7:F8"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="C21:F22"/>
-    <mergeCell ref="C28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5219,16 +5297,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB91CFB-88C5-4BBD-B255-A1DFE3CEEAB0}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5252,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5270,7 +5348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5313,12 +5391,12 @@
       <c r="B5" s="11">
         <v>44534</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -5327,12 +5405,12 @@
       <c r="B6" s="11">
         <v>44535</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.2">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5350,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5368,7 +5446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="187.2">
+    <row r="9" spans="1:6" ht="72">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5415,7 +5493,7 @@
         <v>206</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
@@ -5429,10 +5507,12 @@
       <c r="B12" s="11">
         <v>44541</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -5441,34 +5521,48 @@
       <c r="B13" s="11">
         <v>44542</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+    </row>
+    <row r="14" spans="1:6" ht="388.8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>44543</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="259.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>44544</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -5477,34 +5571,52 @@
       <c r="B16" s="11">
         <v>44545</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44546</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44547</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="13" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
@@ -5513,10 +5625,12 @@
       <c r="B19" s="11">
         <v>44548</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="C19" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -5525,10 +5639,10 @@
       <c r="B20" s="11">
         <v>44549</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
@@ -5537,10 +5651,16 @@
       <c r="B21" s="11">
         <v>44550</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
+      <c r="C21" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
@@ -5549,10 +5669,16 @@
       <c r="B22" s="11">
         <v>44551</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
+      <c r="C22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -5561,10 +5687,16 @@
       <c r="B23" s="11">
         <v>44552</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>220</v>
+      </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -5573,10 +5705,16 @@
       <c r="B24" s="11">
         <v>44553</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -5585,8 +5723,12 @@
       <c r="B25" s="11">
         <v>44554</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>221</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
@@ -5597,10 +5739,12 @@
       <c r="B26" s="11">
         <v>44555</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -5609,10 +5753,10 @@
       <c r="B27" s="11">
         <v>44556</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -5621,10 +5765,16 @@
       <c r="B28" s="11">
         <v>44557</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
+      <c r="C28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
@@ -5633,10 +5783,16 @@
       <c r="B29" s="11">
         <v>44558</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
+      <c r="C29" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -5645,10 +5801,16 @@
       <c r="B30" s="11">
         <v>44559</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
@@ -5657,10 +5819,16 @@
       <c r="B31" s="11">
         <v>44560</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>224</v>
+      </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
@@ -5669,17 +5837,20 @@
       <c r="B32" s="11">
         <v>44561</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
+      <c r="C32" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="C28:F29"/>
+  <mergeCells count="5">
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C5:F6"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="C26:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5687,12 +5858,429 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DB7780-75D8-4EF2-975A-E766D4DAC9C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44563</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44564</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44565</v>
+      </c>
+      <c r="C5" s="120"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44566</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44567</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44568</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44569</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44570</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44571</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44572</v>
+      </c>
+      <c r="C12" s="120"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44573</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44574</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44575</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44576</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44577</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44578</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44579</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44580</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44581</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44582</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44583</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44584</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44585</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44586</v>
+      </c>
+      <c r="C26" s="120"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44587</v>
+      </c>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="107"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44588</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44589</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44590</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44591</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44592</v>
+      </c>
+      <c r="C32" s="116"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="C32:F32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6470,12 +7058,12 @@
       <c r="B7" s="11">
         <v>44142</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -6485,10 +7073,10 @@
       <c r="B8" s="11">
         <v>44143</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -6593,12 +7181,12 @@
       <c r="B14" s="11">
         <v>44149</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -6608,10 +7196,10 @@
       <c r="B15" s="11">
         <v>44150</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
@@ -6697,12 +7285,12 @@
       <c r="B20" s="11">
         <v>44155</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -6712,12 +7300,12 @@
       <c r="B21" s="11">
         <v>44156</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -6727,10 +7315,10 @@
       <c r="B22" s="11">
         <v>44157</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -6835,12 +7423,12 @@
       <c r="B28" s="11">
         <v>44163</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -6850,10 +7438,10 @@
       <c r="B29" s="11">
         <v>44164</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -7052,11 +7640,11 @@
       <c r="B6" s="11">
         <v>44170</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="1">
@@ -7065,11 +7653,11 @@
       <c r="B7" s="11">
         <v>44171</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="1">
@@ -7173,11 +7761,11 @@
       <c r="B13" s="11">
         <v>44177</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="1">
@@ -7186,11 +7774,11 @@
       <c r="B14" s="11">
         <v>44178</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1">
@@ -7294,11 +7882,11 @@
       <c r="B20" s="11">
         <v>44184</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="1">
@@ -7307,11 +7895,11 @@
       <c r="B21" s="11">
         <v>44185</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="1">
@@ -7396,11 +7984,11 @@
       <c r="B26" s="11">
         <v>44190</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="1">
@@ -7409,11 +7997,11 @@
       <c r="B27" s="11">
         <v>44191</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="1">
@@ -7422,11 +8010,11 @@
       <c r="B28" s="11">
         <v>44192</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="1">
@@ -7609,13 +8197,13 @@
       <c r="B2" s="11">
         <v>44197</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -7624,11 +8212,11 @@
       <c r="B3" s="11">
         <v>44198</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="1">
@@ -7637,11 +8225,11 @@
       <c r="B4" s="11">
         <v>44199</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A5" s="1">
@@ -7760,11 +8348,11 @@
       <c r="B11" s="11">
         <v>44206</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="1">
@@ -7830,13 +8418,13 @@
       <c r="B15" s="11">
         <v>44210</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -7845,11 +8433,11 @@
       <c r="B16" s="11">
         <v>44211</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="1">
@@ -7858,11 +8446,11 @@
       <c r="B17" s="11">
         <v>44212</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="1">
@@ -7871,11 +8459,11 @@
       <c r="B18" s="11">
         <v>44213</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="21">
       <c r="A19" s="1">
@@ -7884,13 +8472,13 @@
       <c r="B19" s="11">
         <v>44214</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="1">
@@ -7975,13 +8563,13 @@
       <c r="B24" s="11">
         <v>44219</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="1">
@@ -7990,11 +8578,11 @@
       <c r="B25" s="11">
         <v>44220</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="1">
@@ -8022,13 +8610,13 @@
       <c r="B27" s="11">
         <v>44222</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A28" s="1">
@@ -8054,13 +8642,13 @@
       <c r="B29" s="11">
         <v>44224</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="1">
@@ -8295,23 +8883,23 @@
       <c r="B7" s="11">
         <v>44233</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="11">
         <v>44234</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="11">
@@ -8397,23 +8985,23 @@
       <c r="B14" s="11">
         <v>44240</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="11">
         <v>44241</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
       <c r="B16" s="11">
@@ -8499,23 +9087,23 @@
       <c r="B21" s="11">
         <v>44247</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="11">
         <v>44248</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="2:7" ht="28.8">
       <c r="B23" s="11">
@@ -8601,23 +9189,23 @@
       <c r="B28" s="11">
         <v>44254</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="11">
         <v>44255</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="11"/>
@@ -8777,13 +9365,13 @@
       <c r="B7" s="11">
         <v>44261</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="1">
@@ -8792,11 +9380,11 @@
       <c r="B8" s="11">
         <v>44262</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1">
@@ -8900,13 +9488,13 @@
       <c r="B14" s="11">
         <v>44268</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="1">
@@ -8915,11 +9503,11 @@
       <c r="B15" s="11">
         <v>44269</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="1">
@@ -9023,12 +9611,12 @@
       <c r="B21" s="11">
         <v>44275</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -9038,10 +9626,10 @@
       <c r="B22" s="11">
         <v>44276</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -9156,12 +9744,12 @@
       <c r="B28" s="11">
         <v>44282</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="21" customHeight="1">
@@ -9171,10 +9759,10 @@
       <c r="B29" s="11">
         <v>44283</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
@@ -9386,12 +9974,12 @@
       <c r="B4" s="11">
         <v>44289</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
@@ -9401,10 +9989,10 @@
       <c r="B5" s="11">
         <v>44290</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -9433,12 +10021,12 @@
       <c r="B7" s="11">
         <v>44292</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -9505,12 +10093,12 @@
       <c r="B11" s="11">
         <v>44296</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1">
@@ -9520,10 +10108,10 @@
       <c r="B12" s="11">
         <v>44297</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
@@ -9552,12 +10140,12 @@
       <c r="B14" s="11">
         <v>44299</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1">
@@ -9567,10 +10155,10 @@
       <c r="B15" s="11">
         <v>44300</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -9618,12 +10206,12 @@
       <c r="B18" s="11">
         <v>44303</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
@@ -9633,10 +10221,10 @@
       <c r="B19" s="11">
         <v>44304</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
@@ -9741,10 +10329,10 @@
       <c r="B25" s="11">
         <v>44310</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
@@ -9754,10 +10342,10 @@
       <c r="B26" s="11">
         <v>44311</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
@@ -9976,12 +10564,12 @@
       <c r="B2" s="11">
         <v>44317</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
       <c r="G2" s="19"/>
       <c r="H2" s="33"/>
     </row>
@@ -9992,10 +10580,10 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -10100,12 +10688,12 @@
       <c r="B9" s="11">
         <v>44324</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="101"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
@@ -10115,10 +10703,10 @@
       <c r="B10" s="11">
         <v>44325</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1">
@@ -10204,12 +10792,12 @@
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
@@ -10219,10 +10807,10 @@
       <c r="B16" s="11">
         <v>44331</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
@@ -10232,10 +10820,10 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -10342,12 +10930,12 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
@@ -10357,10 +10945,10 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RamSanthosh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49B3BB2-E7D7-49DE-AC01-2A64EC29F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90D74C8-E745-4A63-8008-37EC9BDFEC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="232">
   <si>
     <t>Task</t>
   </si>
@@ -756,6 +756,27 @@
   </si>
   <si>
     <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CR issues</t>
+  </si>
+  <si>
+    <t>Visual studio not working</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Adding Multiple dropdown</t>
+  </si>
+  <si>
+    <t>nQGcare</t>
+  </si>
+  <si>
+    <t>Kaissokku</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1404,6 +1425,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5858,18 +5885,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DB7780-75D8-4EF2-975A-E766D4DAC9C0}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5882,7 +5911,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="50" t="s">
@@ -5899,12 +5928,12 @@
       <c r="B2" s="11">
         <v>44562</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -5913,10 +5942,10 @@
       <c r="B3" s="11">
         <v>44563</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -5931,10 +5960,10 @@
       <c r="D4" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -5943,10 +5972,16 @@
       <c r="B5" s="11">
         <v>44565</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -5955,10 +5990,16 @@
       <c r="B6" s="11">
         <v>44566</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -5967,10 +6008,16 @@
       <c r="B7" s="11">
         <v>44567</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -5979,10 +6026,16 @@
       <c r="B8" s="11">
         <v>44568</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -5991,10 +6044,12 @@
       <c r="B9" s="11">
         <v>44569</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
@@ -6003,10 +6058,10 @@
       <c r="B10" s="11">
         <v>44570</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -6015,10 +6070,16 @@
       <c r="B11" s="11">
         <v>44571</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
@@ -6027,10 +6088,16 @@
       <c r="B12" s="11">
         <v>44572</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
+      <c r="C12" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -6039,10 +6106,16 @@
       <c r="B13" s="11">
         <v>44573</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
+      <c r="C13" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
@@ -6051,10 +6124,16 @@
       <c r="B14" s="11">
         <v>44574</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -6063,10 +6142,12 @@
       <c r="B15" s="11">
         <v>44575</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -6075,10 +6156,10 @@
       <c r="B16" s="11">
         <v>44576</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -6087,22 +6168,28 @@
       <c r="B17" s="11">
         <v>44577</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44578</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
@@ -6111,46 +6198,66 @@
       <c r="B19" s="11">
         <v>44579</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C19" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="11">
         <v>44580</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44581</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44582</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -6159,10 +6266,12 @@
       <c r="B23" s="11">
         <v>44583</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="C23" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -6171,10 +6280,10 @@
       <c r="B24" s="11">
         <v>44584</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
@@ -6183,22 +6292,34 @@
       <c r="B25" s="11">
         <v>44585</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="C25" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44586</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="C26" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -6207,10 +6328,12 @@
       <c r="B27" s="11">
         <v>44587</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="107"/>
+      <c r="C27" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
@@ -6219,10 +6342,16 @@
       <c r="B28" s="11">
         <v>44588</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="C28" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
@@ -6231,10 +6360,16 @@
       <c r="B29" s="11">
         <v>44589</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="C29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
@@ -6243,10 +6378,12 @@
       <c r="B30" s="11">
         <v>44590</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="C30" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
@@ -6255,10 +6392,10 @@
       <c r="B31" s="11">
         <v>44591</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="52">
@@ -6267,19 +6404,28 @@
       <c r="B32" s="11">
         <v>44592</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F31"/>
     <mergeCell ref="C2:F3"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="C26:F27"/>
-    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90D74C8-E745-4A63-8008-37EC9BDFEC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45369AB7-FD28-466A-822B-E2ABDE37F5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Nov-2021" sheetId="32" r:id="rId15"/>
     <sheet name="Dec-2021" sheetId="33" r:id="rId16"/>
     <sheet name="Jan-2022" sheetId="34" r:id="rId17"/>
+    <sheet name="FEB-2022" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="239">
   <si>
     <t>Task</t>
   </si>
@@ -777,6 +778,27 @@
   </si>
   <si>
     <t>Kaissokku</t>
+  </si>
+  <si>
+    <t>nQGCare</t>
+  </si>
+  <si>
+    <t>Issue fix from Japan</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Uplaod All latest source</t>
+  </si>
+  <si>
+    <t>Soniya Projects is pending</t>
+  </si>
+  <si>
+    <t>Report design change</t>
+  </si>
+  <si>
+    <t>CR sissue fixing</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1431,6 +1453,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5324,8 +5364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB91CFB-88C5-4BBD-B255-A1DFE3CEEAB0}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:F32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5887,8 +5927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DB7780-75D8-4EF2-975A-E766D4DAC9C0}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6404,10 +6444,18 @@
       <c r="B32" s="11">
         <v>44592</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="C32" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
@@ -6419,13 +6467,471 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="C2:F3"/>
     <mergeCell ref="C9:F10"/>
     <mergeCell ref="C15:F17"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C23:F24"/>
     <mergeCell ref="C27:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34010D71-8793-4B3B-8EF3-8F0EB7CFC11D}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44563</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44564</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44565</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44566</v>
+      </c>
+      <c r="C6" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44567</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44568</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44569</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44570</v>
+      </c>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44571</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44572</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44573</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44574</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44575</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44576</v>
+      </c>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44577</v>
+      </c>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44578</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44579</v>
+      </c>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44580</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44581</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44582</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44583</v>
+      </c>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44584</v>
+      </c>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44585</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44586</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44587</v>
+      </c>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44588</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44589</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44590</v>
+      </c>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44591</v>
+      </c>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44592</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
     <mergeCell ref="C30:F31"/>
-    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45369AB7-FD28-466A-822B-E2ABDE37F5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0FFB8-F650-4C5D-A4CD-F3CBCE14EFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="242">
   <si>
     <t>Task</t>
   </si>
@@ -799,6 +799,15 @@
   </si>
   <si>
     <t>CR sissue fixing</t>
+  </si>
+  <si>
+    <t>Contarct</t>
+  </si>
+  <si>
+    <t>Issues from Japan team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export data records mismatch </t>
   </si>
 </sst>
 </file>
@@ -6484,7 +6493,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6599,7 +6608,7 @@
         <v>44566</v>
       </c>
       <c r="C6" s="123" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" s="124"/>
       <c r="E6" s="124"/>
@@ -6642,46 +6651,70 @@
       <c r="B9" s="11">
         <v>44569</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>44570</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>44571</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="11">
         <v>44572</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -6924,10 +6957,9 @@
       <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="C30:F31"/>
     <mergeCell ref="C6:F7"/>
-    <mergeCell ref="C9:F10"/>
     <mergeCell ref="C15:F17"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C23:F24"/>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0FFB8-F650-4C5D-A4CD-F3CBCE14EFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02749DF-F1BD-4A9D-9BFC-0C2163F0B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="248">
   <si>
     <t>Task</t>
   </si>
@@ -808,6 +808,24 @@
   </si>
   <si>
     <t xml:space="preserve">Export data records mismatch </t>
+  </si>
+  <si>
+    <t>PENNA</t>
+  </si>
+  <si>
+    <t>MRP document verfication</t>
+  </si>
+  <si>
+    <t>nQGCare &amp; nMVAR</t>
+  </si>
+  <si>
+    <t>Source code preparation</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Create a Branch Reisteration html for email</t>
   </si>
 </sst>
 </file>
@@ -5936,7 +5954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DB7780-75D8-4EF2-975A-E766D4DAC9C0}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -6492,8 +6510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34010D71-8793-4B3B-8EF3-8F0EB7CFC11D}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6723,10 +6741,12 @@
       <c r="B13" s="11">
         <v>44573</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -6735,70 +6755,100 @@
       <c r="B14" s="11">
         <v>44574</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>44575</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>44576</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="C16" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44577</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="C17" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44578</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="C18" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>44579</v>
       </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="C19" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -6957,13 +7007,12 @@
       <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C30:F31"/>
     <mergeCell ref="C6:F7"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C23:F24"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02749DF-F1BD-4A9D-9BFC-0C2163F0B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D72EE-3E2B-4463-AB35-D945E59173B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="260">
   <si>
     <t>Task</t>
   </si>
@@ -826,6 +826,42 @@
   </si>
   <si>
     <t>Create a Branch Reisteration html for email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kaisokku 2. Hayaai   </t>
+  </si>
+  <si>
+    <t>1.Mobile view align changed                                            2. Email content change</t>
+  </si>
+  <si>
+    <t>1. WIP                       2.Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kaisokku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mobile view align changed                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. WIP                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Completed                      </t>
+  </si>
+  <si>
+    <t>Image conversion</t>
+  </si>
+  <si>
+    <t>ffmpeg image convertion verfication</t>
+  </si>
+  <si>
+    <t>2.nQGCare</t>
+  </si>
+  <si>
+    <t>2.CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Completed                      </t>
   </si>
 </sst>
 </file>
@@ -6510,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34010D71-8793-4B3B-8EF3-8F0EB7CFC11D}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6519,7 +6555,7 @@
     <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6857,10 +6893,12 @@
       <c r="B20" s="11">
         <v>44580</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
@@ -6869,70 +6907,100 @@
       <c r="B21" s="11">
         <v>44581</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+    </row>
+    <row r="22" spans="1:6" ht="57.6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44582</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="C22" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44583</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="C23" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="11">
         <v>44584</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="C24" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44585</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="C25" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44586</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -7010,9 +7078,9 @@
   <mergeCells count="5">
     <mergeCell ref="C30:F31"/>
     <mergeCell ref="C6:F7"/>
-    <mergeCell ref="C23:F24"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_Ramsanthosh.xlsx
+++ b/REVER_DailyTracker_Ramsanthosh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramsg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D72EE-3E2B-4463-AB35-D945E59173B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFD65C0-9927-405D-94E1-FB11C5A15914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="Dec-2021" sheetId="33" r:id="rId16"/>
     <sheet name="Jan-2022" sheetId="34" r:id="rId17"/>
     <sheet name="FEB-2022" sheetId="35" r:id="rId18"/>
+    <sheet name="Mar-2022" sheetId="36" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="37" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="298">
   <si>
     <t>Task</t>
   </si>
@@ -792,9 +794,6 @@
     <t>Uplaod All latest source</t>
   </si>
   <si>
-    <t>Soniya Projects is pending</t>
-  </si>
-  <si>
     <t>Report design change</t>
   </si>
   <si>
@@ -862,6 +861,123 @@
   </si>
   <si>
     <t xml:space="preserve">2.Completed                      </t>
+  </si>
+  <si>
+    <t>2022/02/29</t>
+  </si>
+  <si>
+    <t>2022/02/30</t>
+  </si>
+  <si>
+    <t>2022/02/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.LOFT                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Check image converting using commands                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.WIP             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.LOFT         2.nQGCare               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Check image converting using commands                                     2.Verifying all projects                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.WIP                  2.Completed           </t>
+  </si>
+  <si>
+    <t>1.LOFT                 2.GitHub</t>
+  </si>
+  <si>
+    <t>1.Check image converting using commands                                                      2.Upateing Latest Source</t>
+  </si>
+  <si>
+    <t>1.WIP             2.Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.completed           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a web page in image converting                                                      </t>
+  </si>
+  <si>
+    <t>Contract Management</t>
+  </si>
+  <si>
+    <t>Change import function csv to xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMVAR               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking new DLL in all projects                                              </t>
+  </si>
+  <si>
+    <t>Change import method &amp; and add delete in admin module</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installing </t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Data Checking</t>
+  </si>
+  <si>
+    <t>Creating a sample Project</t>
+  </si>
+  <si>
+    <t>learn Modules - NgModules</t>
+  </si>
+  <si>
+    <t>CR-Make a controls blank in f21  and Changes in export</t>
+  </si>
+  <si>
+    <t>2022/04/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Contract Management                    2. Angular      </t>
+  </si>
+  <si>
+    <t>1.Tesing CR                                                                                                      2. learing Architecture</t>
+  </si>
+  <si>
+    <t>Login page-design and functionality</t>
+  </si>
+  <si>
+    <t>Packer dashboard  page-design and functionality</t>
+  </si>
+  <si>
+    <t>creating crud operation</t>
+  </si>
+  <si>
+    <t>1.Contract Management            2.Angular &amp; python</t>
+  </si>
+  <si>
+    <t>1.CR                                                                                                                2.Insert Function</t>
+  </si>
+  <si>
+    <t>1.Completed 2.WIP</t>
+  </si>
+  <si>
+    <t>Angular &amp; python</t>
+  </si>
+  <si>
+    <t>Insert Function</t>
+  </si>
+  <si>
+    <t>Deploying server</t>
+  </si>
+  <si>
+    <t>Change date format</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1534,6 +1650,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6546,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34010D71-8793-4B3B-8EF3-8F0EB7CFC11D}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6584,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>232</v>
@@ -6602,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>232</v>
@@ -6620,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>234</v>
@@ -6632,22 +6784,20 @@
       <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>236</v>
-      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>232</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
@@ -6659,7 +6809,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>44566</v>
+        <v>44597</v>
       </c>
       <c r="C6" s="123" t="s">
         <v>15</v>
@@ -6673,7 +6823,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>44567</v>
+        <v>44598</v>
       </c>
       <c r="C7" s="126"/>
       <c r="D7" s="127"/>
@@ -6685,13 +6835,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>183</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
@@ -6703,13 +6853,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>44569</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
@@ -6721,13 +6871,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>44570</v>
+        <v>44601</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
@@ -6739,13 +6889,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>44571</v>
+        <v>44602</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
@@ -6757,13 +6907,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="11">
-        <v>44572</v>
+        <v>44603</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
@@ -6775,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>44573</v>
+        <v>44604</v>
       </c>
       <c r="C13" s="120" t="s">
         <v>15</v>
@@ -6789,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>44574</v>
+        <v>44605</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
@@ -6801,13 +6951,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>44575</v>
+        <v>44606</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
@@ -6819,13 +6969,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>44576</v>
+        <v>44607</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
@@ -6837,13 +6987,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>44577</v>
+        <v>44608</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
@@ -6855,13 +7005,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>44578</v>
+        <v>44609</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10" t="s">
@@ -6873,13 +7023,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>44579</v>
+        <v>44610</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
@@ -6891,7 +7041,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>44580</v>
+        <v>44611</v>
       </c>
       <c r="C20" s="123" t="s">
         <v>15</v>
@@ -6905,7 +7055,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>44581</v>
+        <v>44612</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="127"/>
@@ -6917,17 +7067,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>44582</v>
+        <v>44613</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>248</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8">
@@ -6935,17 +7085,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>44583</v>
+        <v>44614</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8">
@@ -6953,17 +7103,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>44584</v>
+        <v>44615</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8">
@@ -6971,35 +7121,35 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>44585</v>
+        <v>44616</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>44586</v>
+        <v>44617</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7007,43 +7157,47 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>44587</v>
-      </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
+        <v>44618</v>
+      </c>
+      <c r="C27" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>44588</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="10"/>
+        <v>44619</v>
+      </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>44589</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="10"/>
+        <v>44620</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="101"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
-        <v>44590</v>
+      <c r="B30" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="121"/>
       <c r="D30" s="121"/>
@@ -7054,8 +7208,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
-        <v>44591</v>
+      <c r="B31" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="C31" s="121"/>
       <c r="D31" s="121"/>
@@ -7066,8 +7220,8 @@
       <c r="A32" s="52">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
-        <v>44592</v>
+      <c r="B32" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -7075,12 +7229,574 @@
       <c r="F32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C30:F31"/>
     <mergeCell ref="C6:F7"/>
-    <mergeCell ref="C27:F27"/>
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C27:F28"/>
+    <mergeCell ref="C29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE64E4A4-C774-4CF4-AC80-E790FA818651}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="85.2" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44621</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44622</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44623</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44624</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44625</v>
+      </c>
+      <c r="C6" s="123"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="125"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44626</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44627</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44628</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44629</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44630</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44631</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44632</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44633</v>
+      </c>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44634</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44635</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44636</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44637</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44638</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44639</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44640</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="128"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44641</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44642</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44643</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44644</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44645</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44646</v>
+      </c>
+      <c r="C27" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44647</v>
+      </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44648</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44649</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44650</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44651</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C27:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7712,6 +8428,530 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC3EEA9-7F52-4197-AF4B-BB5A371D309E}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44652</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44653</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44654</v>
+      </c>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44655</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44656</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44657</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44658</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44659</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44660</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44661</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44662</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44663</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44664</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44665</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44666</v>
+      </c>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44667</v>
+      </c>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44668</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44669</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44670</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44671</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44672</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44673</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44674</v>
+      </c>
+      <c r="C24" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44675</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="107"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44676</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44677</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44678</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44679</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44680</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44681</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="C15:F18"/>
+    <mergeCell ref="C24:F25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
